--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C722B093-C7AD-48F8-9725-4B188359FA0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC011ED-80E5-4D7E-BBAD-33D15D65BA2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solar-plane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC011ED-80E5-4D7E-BBAD-33D15D65BA2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0822B6-8E03-43A6-976E-2596BA1D7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>part</t>
   </si>
@@ -289,6 +280,9 @@
   </si>
   <si>
     <t>screws</t>
+  </si>
+  <si>
+    <t>distance between ribs (mm)</t>
   </si>
 </sst>
 </file>
@@ -608,18 +602,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -696,10 +690,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROUNDUP(O13*10^-3,3)</f>
-        <v>5.742</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="B2">
         <v>60</v>
@@ -781,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>9</v>
       </c>
@@ -836,29 +830,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4">
-        <v>100.27</v>
+        <v>62.08</v>
       </c>
       <c r="N4">
-        <f>(E2)/P4 *10^3</f>
-        <v>2.11</v>
+        <f>(E2+C2*2)/P4 *10^3</f>
+        <v>14.11</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>211.56969999999998</v>
+        <v>875.94879999999989</v>
       </c>
       <c r="P4">
         <v>1000</v>
       </c>
       <c r="Q4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="R4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="S4" t="s">
         <v>11</v>
@@ -870,14 +864,14 @@
         <v>11</v>
       </c>
       <c r="V4">
-        <v>16.989999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
         <f>ROUNDUP(N4*V4*(1+W4), 2)</f>
-        <v>35.85</v>
+        <v>88.9</v>
       </c>
       <c r="Y4" t="s">
         <v>27</v>
@@ -887,23 +881,35 @@
       </c>
       <c r="AA4">
         <f>ROUNDUP(N4/Z4, 0)*Z4</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>63</v>
       </c>
+      <c r="M5">
+        <v>14.72</v>
+      </c>
       <c r="N5">
-        <f>C2/P2 * 10^3</f>
-        <v>38.461538461538467</v>
+        <f>C2/F11 * 10^3</f>
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <f>M5*N5</f>
+        <v>588.80000000000007</v>
       </c>
       <c r="P5">
-        <f>D2</f>
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>65</v>
       </c>
@@ -911,30 +917,33 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>ROUND(N2/2*P2*10^-3 + (N2/2 + 1)*0.002,2)</f>
         <v>4.9000000000000004</v>
@@ -943,6 +952,9 @@
         <f>(N2/2 +1) * 0.002</f>
         <v>6.4000000000000001E-2</v>
       </c>
+      <c r="F11">
+        <v>150</v>
+      </c>
       <c r="L11" t="s">
         <v>79</v>
       </c>
@@ -956,20 +968,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>15</v>
       </c>
       <c r="O13">
         <f>O2+O3+O4+O5+O6+O7+O8</f>
-        <v>5741.5697</v>
+        <v>6994.7488000000003</v>
       </c>
       <c r="X13">
         <f>X3+X2+X4</f>
-        <v>234.31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+        <v>287.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>23</v>
       </c>
@@ -986,7 +998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1002,14 +1014,14 @@
       </c>
       <c r="O17">
         <f>AA2 * V2 + AA3 * V3+ AA4 * V4</f>
-        <v>308.97000000000003</v>
+        <v>352.5</v>
       </c>
       <c r="P17">
         <f>S2*N2</f>
         <v>307.52</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1066,7 +1078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>6.7779836065573775</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solar-plane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0822B6-8E03-43A6-976E-2596BA1D7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F7F5CD-DBA2-4A44-BE9E-7DF1DED4D8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>part</t>
   </si>
@@ -213,9 +222,6 @@
     <t>AA2</t>
   </si>
   <si>
-    <t>total cell output</t>
-  </si>
-  <si>
     <t>ribs</t>
   </si>
   <si>
@@ -234,9 +240,6 @@
     <t>hole drill</t>
   </si>
   <si>
-    <t>brackets</t>
-  </si>
-  <si>
     <t>width ratio</t>
   </si>
   <si>
@@ -283,6 +286,21 @@
   </si>
   <si>
     <t>distance between ribs (mm)</t>
+  </si>
+  <si>
+    <t>total cell output (100% efficiency)</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>esc</t>
+  </si>
+  <si>
+    <t>gearbox</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/turnigy-aerodrive-sk3-2836-1040kv-brushless-outrunner-motor.html?queryID=b1dd1f95be3adf81b41ffce9db689c7b&amp;objectID=17166&amp;indexName=hbk_live_products_analytics</t>
   </si>
 </sst>
 </file>
@@ -600,20 +618,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -624,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
@@ -639,7 +657,7 @@
         <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -675,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="W1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X1" t="s">
         <v>14</v>
@@ -690,9 +708,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROUNDUP(O13*10^-3,3)</f>
+        <f>ROUNDUP(O20*10^-3,3)</f>
         <v>6.9950000000000001</v>
       </c>
       <c r="B2">
@@ -765,7 +783,7 @@
         <v>51.46</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z2">
         <v>50</v>
@@ -775,7 +793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>9</v>
       </c>
@@ -783,7 +801,7 @@
         <v>48.5</v>
       </c>
       <c r="N3">
-        <f>ROUNDUP(B2*(24-F2)/(T3*I2 * 10^-2) / N17, 0) * N17</f>
+        <f>ROUNDUP(B2*(24-F2)/(T3*I2 * 10^-2) / N24, 0) * N24</f>
         <v>84</v>
       </c>
       <c r="O3">
@@ -830,7 +848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>20</v>
       </c>
@@ -884,9 +902,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5">
         <v>14.72</v>
@@ -908,42 +926,75 @@
       <c r="R5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <f t="shared" ref="X5:X7" si="1">ROUNDUP(N5*V5*(1+W5), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="L6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>1022</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="L7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>26.39</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>ROUNDUP(N7*V7*(1+W7), 2)</f>
+        <v>26.39</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>ROUND(N2/2*P2*10^-3 + (N2/2 + 1)*0.002,2)</f>
         <v>4.9000000000000004</v>
@@ -955,152 +1006,141 @@
       <c r="F11">
         <v>150</v>
       </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18">
         <v>1000</v>
       </c>
-      <c r="Q11">
+      <c r="Q18">
         <v>13</v>
       </c>
-      <c r="R11">
+      <c r="R18">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
         <v>15</v>
       </c>
-      <c r="O13">
+      <c r="O20">
         <f>O2+O3+O4+O5+O6+O7+O8</f>
         <v>6994.7488000000003</v>
       </c>
-      <c r="X13">
+      <c r="X20">
         <f>X3+X2+X4</f>
         <v>287.36</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M23" t="s">
         <v>60</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N23" t="s">
         <v>24</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O23" t="s">
         <v>29</v>
       </c>
-      <c r="P16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17">
+      <c r="P23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24">
         <f>N3*R3*10^-3</f>
         <v>5.67</v>
       </c>
-      <c r="N17">
+      <c r="N24">
         <v>6</v>
       </c>
-      <c r="O17">
+      <c r="O24">
         <f>AA2 * V2 + AA3 * V3+ AA4 * V4</f>
         <v>352.5</v>
       </c>
-      <c r="P17">
+      <c r="P24">
         <f>S2*N2</f>
         <v>307.52</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="V24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="V25">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1108,78 +1148,99 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="L27" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" t="s">
-        <v>71</v>
-      </c>
-      <c r="O27" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="M28">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="V31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V32">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="M35">
         <f>D2/(0.305 * C2/5695 * 10^3)</f>
         <v>1.1296639344262294</v>
       </c>
-      <c r="N28">
+      <c r="N35">
         <f>0.305 * C2/5695 * 10^3</f>
         <v>0.32133450395083407</v>
       </c>
-      <c r="P28">
+      <c r="P35">
         <f>C2/D2</f>
         <v>16.528925619834713</v>
       </c>
-      <c r="Q28">
+      <c r="Q35">
         <f>5.695*D2/0.305</f>
         <v>6.7779836065573775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F7F5CD-DBA2-4A44-BE9E-7DF1DED4D8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFCFE3-7999-45AA-A641-B5A96D88C69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="158">
   <si>
     <t>part</t>
   </si>
@@ -228,18 +228,9 @@
     <t>wing width (m)</t>
   </si>
   <si>
-    <t>avionics</t>
-  </si>
-  <si>
-    <t>tools</t>
-  </si>
-  <si>
     <t>hot glue gun</t>
   </si>
   <si>
-    <t>hole drill</t>
-  </si>
-  <si>
     <t>width ratio</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>temp real wingspan</t>
   </si>
   <si>
-    <t>wood</t>
-  </si>
-  <si>
     <t>rib space added</t>
   </si>
   <si>
@@ -279,9 +267,6 @@
     <t>tax</t>
   </si>
   <si>
-    <t>orafoil</t>
-  </si>
-  <si>
     <t>screws</t>
   </si>
   <si>
@@ -301,6 +286,228 @@
   </si>
   <si>
     <t>https://hobbyking.com/en_us/turnigy-aerodrive-sk3-2836-1040kv-brushless-outrunner-motor.html?queryID=b1dd1f95be3adf81b41ffce9db689c7b&amp;objectID=17166&amp;indexName=hbk_live_products_analytics</t>
+  </si>
+  <si>
+    <t>servos</t>
+  </si>
+  <si>
+    <t>flight controller</t>
+  </si>
+  <si>
+    <t>rc receiver</t>
+  </si>
+  <si>
+    <t>rc transmitter</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>sensors</t>
+  </si>
+  <si>
+    <t>power splitter</t>
+  </si>
+  <si>
+    <t>volume (cm^3)</t>
+  </si>
+  <si>
+    <t>balsa density g/cm^3</t>
+  </si>
+  <si>
+    <t>carbon fibre parts:</t>
+  </si>
+  <si>
+    <t>epoxy resin</t>
+  </si>
+  <si>
+    <t>hardener</t>
+  </si>
+  <si>
+    <t>CF cloth</t>
+  </si>
+  <si>
+    <t>shrink tape</t>
+  </si>
+  <si>
+    <t>release agent</t>
+  </si>
+  <si>
+    <t>insulating material</t>
+  </si>
+  <si>
+    <t>temperature regulator</t>
+  </si>
+  <si>
+    <t>wood for mould</t>
+  </si>
+  <si>
+    <t>soldering iron</t>
+  </si>
+  <si>
+    <t>cnc machine</t>
+  </si>
+  <si>
+    <t>spot welder</t>
+  </si>
+  <si>
+    <t>nuts and bolts</t>
+  </si>
+  <si>
+    <t>wing covering</t>
+  </si>
+  <si>
+    <t>clamp</t>
+  </si>
+  <si>
+    <t>bearings</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>goggles</t>
+  </si>
+  <si>
+    <t>anti dust mask</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>https://nl.banggood.com/3018-3-Axis-Mini-DIY-CNC-Router-Standard-Spindle-Motor-Wood-Engraving-Machine-Milling-Engraver-p-1274569.html?utm_source=googleshopping&amp;utm_medium=cpc_organic&amp;gmcCountry=NL&amp;utm_content=minha&amp;utm_campaign=minha-nlg-nl-pc&amp;currency=EUR&amp;cur_warehouse=CZ&amp;createTmp=1&amp;utm_source=googleshopping&amp;utm_medium=cpc_bgcs&amp;utm_content=sandra&amp;utm_campaign=sandra-ssc-nlg-all-0221&amp;ad_id=499731689711&amp;gclid=EAIaIQobChMI-bmFk8St8QIVg_hRCh3DvwIFEAQYBiABEgIrlvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Roulements-Bearings-Skateboard-Longboard-Waveboard/dp/B07S3SZZST/ref=sr_1_6?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=roulement+a+billes&amp;qid=1624625257&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>8X22X7</t>
+  </si>
+  <si>
+    <t>mandrel small</t>
+  </si>
+  <si>
+    <t>mandrel large</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/profil%C3%A9s-t%C3%B4les/profil%C3%A9s/gah-alberts-tube-rond-en-aluminium-anodis%C3%A9-argent-30x2mm-2m/5608470</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/profil%C3%A9s-t%C3%B4les/profil%C3%A9s/gah-alberts-tube-rond-en-aluminium-6x1mm-1m/5535011</t>
+  </si>
+  <si>
+    <t>OD 6mm</t>
+  </si>
+  <si>
+    <t>OD 30mm</t>
+  </si>
+  <si>
+    <t>aluminum</t>
+  </si>
+  <si>
+    <t>DIY CF curing oven:</t>
+  </si>
+  <si>
+    <t>thermometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power extender </t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/construction/isolation/isolation-des-murs/panneau-d'isolation-ursa-'xps-nwe'-250-x-60-x-4-cm/5228836</t>
+  </si>
+  <si>
+    <t>insulation tape</t>
+  </si>
+  <si>
+    <t>cutter</t>
+  </si>
+  <si>
+    <t>input plug</t>
+  </si>
+  <si>
+    <t>heat gun</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/BelVue-Prise-saillie-BelVue-Blanc/dp/B00EY7I7VY/ref=sr_1_6?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=prise%2Belectrique&amp;qid=1624628180&amp;sr=8-6&amp;th=1</t>
+  </si>
+  <si>
+    <t>output socket</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Zenitech-Fiche-m%C3%A2le-anneau-16A/dp/B004U740PA/ref=sr_1_7?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=prise%2Belectrique&amp;qid=1624628180&amp;sr=8-7&amp;th=1</t>
+  </si>
+  <si>
+    <t>avionics:</t>
+  </si>
+  <si>
+    <t>health &amp; safety:</t>
+  </si>
+  <si>
+    <t>2mm balsa for wing ribs</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/ARCELI-Contr%C3%B4leur-temp%C3%A9rature-Thermostat-R%C3%A9gulateur/dp/B07RFBZ5RN/ref=sr_1_5?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=regulateur+temperature&amp;qid=1624626818&amp;rnid=2492331031&amp;s=industrial&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>latex gloves</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/outillage-%C3%A0-main/colliers/pinces-c/serre-joint-c-sencys-100-mm/5228087</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/electricit%C3%A9/rallonges-adaptateurs/rallonge-%C3%A9lectrique-chacon-ho5vvf-5m-blanc-ip20/1782854</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/TESA-53948V-Tesaflex-%C3%A9lectrique-Professional/dp/B00TZW5GMQ/ref=sr_1_5?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=insulation+tape&amp;qid=1624630993&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Stanley-0-10-417-Cutter-Corps-bi-mati%C3%A8re/dp/B00HHNL7Z0/ref=sr_1_5?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=cutter&amp;qid=1624631245&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>too expensive &amp; not essential</t>
+  </si>
+  <si>
+    <t>tools/ materials:</t>
+  </si>
+  <si>
+    <t>jigsaw</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/boulons/boulon-%C3%A0-t%C3%AAte-frais%C3%A9e-sencys-acier-galvanis%C3%A9-m3-x-40-mm-30-pcs/5367466</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/electricit%C3%A9/c%C3%A2bles-et-rangement/c%C3%A2bles-%C3%A9lectriques/c%C3%A2ble-%C3%A9lectrique-sencys-'vtlb-2g0-75'-noir-5-m/5230818</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Gaine-Thermor%C3%A9tractable-750-Tailles-Ratio/dp/B0778D22WM/ref=sr_1_5?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=shrink+tube&amp;qid=1624633683&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>battery shrink tubes</t>
+  </si>
+  <si>
+    <t>https://www.pb-modelisme.com/Matprem/detailprod.php?prod=2</t>
+  </si>
+  <si>
+    <t>regular wood for thicker wing ribs etc..</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/construction/bois/panneaux-mdf/panneau-mdf-sencys-haute-densit%C3%A9-122x61cm-6mm/1887954</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Pattex-Biberon-Colle-bois-Transparent/dp/B008F8I2ZY/ref=sr_1_13?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=pva+glue&amp;qid=1624640840&amp;sr=8-13#customerReviews</t>
+  </si>
+  <si>
+    <t>wood:</t>
+  </si>
+  <si>
+    <t>BASED ON AVAILABILITY</t>
   </si>
 </sst>
 </file>
@@ -618,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="I52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72:R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +838,7 @@
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -657,7 +864,7 @@
         <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -681,37 +888,40 @@
         <v>19</v>
       </c>
       <c r="S1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" t="s">
-        <v>80</v>
-      </c>
       <c r="X1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROUNDUP(O20*10^-3,3)</f>
-        <v>6.9950000000000001</v>
+        <f>ROUNDUP(O85*10^-3,3)</f>
+        <v>6.9690000000000003</v>
       </c>
       <c r="B2">
         <v>60</v>
@@ -747,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="N2">
-        <f>EVEN(G2/(S2*H2/100))</f>
+        <f>EVEN(G2/(T2*H2/100))</f>
         <v>62</v>
       </c>
       <c r="O2">
@@ -763,37 +973,37 @@
       <c r="R2">
         <v>0.23</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4.96</v>
-      </c>
-      <c r="T2" t="s">
-        <v>11</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2">
         <v>0.83</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0</v>
       </c>
-      <c r="X2">
-        <f>ROUNDUP(N2*V2*(1+W2),2)</f>
+      <c r="Y2">
+        <f>ROUNDUP(N2*W2*(1+X2),2)</f>
         <v>51.46</v>
       </c>
-      <c r="Y2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2">
+      <c r="Z2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2">
         <v>50</v>
       </c>
-      <c r="AA2">
-        <f>ROUNDUP(N2/Z2, 0)*Z2</f>
+      <c r="AB2">
+        <f>ROUNDUP(N2/AA2, 0)*AA2</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>9</v>
       </c>
@@ -801,7 +1011,7 @@
         <v>48.5</v>
       </c>
       <c r="N3">
-        <f>ROUNDUP(B2*(24-F2)/(T3*I2 * 10^-2) / N24, 0) * N24</f>
+        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N88, 0) * N88</f>
         <v>84</v>
       </c>
       <c r="O3">
@@ -817,51 +1027,51 @@
       <c r="R3">
         <v>67.5</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>22</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>11.88</v>
       </c>
-      <c r="U3">
-        <f>ROUNDDOWN(T3/M3*10^3, 2)</f>
+      <c r="V3">
+        <f>ROUNDDOWN(U3/M3*10^3, 2)</f>
         <v>244.94</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1.75</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0</v>
       </c>
-      <c r="X3">
-        <f>ROUNDUP(N3*V3*(1+W3),2)</f>
+      <c r="Y3">
+        <f>ROUNDUP(N3*W3*(1+X3),2)</f>
         <v>147</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>17</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>20</v>
       </c>
-      <c r="AA3">
-        <f>ROUNDUP(N3/Z3, 0)*Z3</f>
+      <c r="AB3">
+        <f>ROUNDUP(N3/AA3, 0)*AA3</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4">
-        <v>62.08</v>
+        <v>53.41</v>
       </c>
       <c r="N4">
-        <f>(E2+C2*2)/P4 *10^3</f>
-        <v>14.11</v>
+        <f>12 + 2*2 + 3 + 2 + 4</f>
+        <v>25</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>875.94879999999989</v>
+        <v>1335.25</v>
       </c>
       <c r="P4">
         <v>1000</v>
@@ -872,50 +1082,52 @@
       <c r="R4">
         <v>14</v>
       </c>
-      <c r="S4" t="s">
-        <v>11</v>
-      </c>
       <c r="T4" t="s">
         <v>11</v>
       </c>
       <c r="U4" t="s">
         <v>11</v>
       </c>
-      <c r="V4">
-        <v>6.3</v>
+      <c r="V4" t="s">
+        <v>11</v>
       </c>
       <c r="W4">
+        <f>8.5/2</f>
+        <v>4.25</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
-      <c r="X4">
-        <f>ROUNDUP(N4*V4*(1+W4), 2)</f>
-        <v>88.9</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="Y4">
+        <f>ROUNDUP(N4*W4*(1+X4), 2)</f>
+        <v>106.25</v>
+      </c>
+      <c r="Z4" t="s">
         <v>27</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AA4">
-        <f>ROUNDUP(N4/Z4, 0)*Z4</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB4">
+        <f>ROUNDUP(N4/AA4, 0)*AA4</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>62</v>
       </c>
       <c r="M5">
-        <v>14.72</v>
+        <f>S5*S88</f>
+        <v>1.3805684000000005</v>
       </c>
       <c r="N5">
         <f>C2/F11 * 10^3</f>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <f>M5*N5</f>
-        <v>588.80000000000007</v>
+        <v>103.54263000000003</v>
       </c>
       <c r="P5">
         <v>368</v>
@@ -926,75 +1138,62 @@
       <c r="R5">
         <v>40</v>
       </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X7" si="1">ROUNDUP(N5*V5*(1+W5), 2)</f>
+      <c r="S5">
+        <f>6902.842 * (10^-1)^3</f>
+        <v>6.9028420000000015</v>
+      </c>
+      <c r="Y5">
+        <f>ROUNDUP(N5*W5*(1+X5), 2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6">
-        <v>1022</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>26.39</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>ROUNDUP(N7*V7*(1+W7), 2)</f>
-        <v>26.39</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="P9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>ROUND(N2/2*P2*10^-3 + (N2/2 + 1)*0.002,2)</f>
         <v>4.9000000000000004</v>
@@ -1004,46 +1203,52 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="L17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="L18" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18">
-        <v>1000</v>
-      </c>
-      <c r="Q18">
-        <v>13</v>
-      </c>
-      <c r="R18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1051,7 +1256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1059,34 +1264,38 @@
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20">
-        <f>O2+O3+O4+O5+O6+O7+O8</f>
-        <v>6994.7488000000003</v>
-      </c>
-      <c r="X20">
-        <f>X3+X2+X4</f>
-        <v>287.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1094,151 +1303,447 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="M24">
+      <c r="L24" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>134</v>
+      </c>
+      <c r="O42">
+        <v>1022</v>
+      </c>
+      <c r="Y42">
+        <f>ROUNDUP(N42*W42*(1+X42), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>26.39</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f>ROUNDUP(N43*W43*(1+X43), 2)</f>
+        <v>26.39</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>81</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>157</v>
+      </c>
+      <c r="T63" t="s">
+        <v>122</v>
+      </c>
+      <c r="U63" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L64" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>157</v>
+      </c>
+      <c r="T64" t="s">
+        <v>122</v>
+      </c>
+      <c r="U64" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L75" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L76" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L77" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="12:25" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>15</v>
+      </c>
+      <c r="O85">
+        <f>O2+O3+O4+O5+O42+O43+O44</f>
+        <v>6968.7926299999999</v>
+      </c>
+      <c r="Y85">
+        <f>Y3+Y2+Y4</f>
+        <v>304.71000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="12:25" x14ac:dyDescent="0.3">
+      <c r="L87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" t="s">
+        <v>60</v>
+      </c>
+      <c r="N87" t="s">
+        <v>24</v>
+      </c>
+      <c r="O87" t="s">
+        <v>29</v>
+      </c>
+      <c r="P87" t="s">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="12:25" x14ac:dyDescent="0.3">
+      <c r="M88">
         <f>N3*R3*10^-3</f>
         <v>5.67</v>
       </c>
-      <c r="N24">
+      <c r="N88">
         <v>6</v>
       </c>
-      <c r="O24">
-        <f>AA2 * V2 + AA3 * V3+ AA4 * V4</f>
-        <v>352.5</v>
-      </c>
-      <c r="P24">
-        <f>S2*N2</f>
+      <c r="O88">
+        <f>AB2 * W2 + AB3 * W3+ AB4 * W4</f>
+        <v>364.25</v>
+      </c>
+      <c r="P88">
+        <f>T2*N2</f>
         <v>307.52</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="S88">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="12:25" x14ac:dyDescent="0.3">
+      <c r="W95" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="12:25" x14ac:dyDescent="0.3">
+      <c r="W96">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="98" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L98" t="s">
+        <v>70</v>
+      </c>
+      <c r="M98" t="s">
         <v>65</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N98" t="s">
         <v>66</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O98" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="V31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V32">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="34" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L34" t="s">
-        <v>73</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="P98" t="s">
         <v>68</v>
       </c>
-      <c r="N34" t="s">
-        <v>69</v>
-      </c>
-      <c r="O34" t="s">
-        <v>70</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="Q98" t="s">
         <v>71</v>
       </c>
-      <c r="Q34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="M35">
+    </row>
+    <row r="99" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="M99">
         <f>D2/(0.305 * C2/5695 * 10^3)</f>
         <v>1.1296639344262294</v>
       </c>
-      <c r="N35">
+      <c r="N99">
         <f>0.305 * C2/5695 * 10^3</f>
         <v>0.32133450395083407</v>
       </c>
-      <c r="P35">
+      <c r="P99">
         <f>C2/D2</f>
         <v>16.528925619834713</v>
       </c>
-      <c r="Q35">
+      <c r="Q99">
         <f>5.695*D2/0.305</f>
         <v>6.7779836065573775</v>
       </c>

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFCFE3-7999-45AA-A641-B5A96D88C69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B180B3D-DDAE-4A37-8F53-43A3CDC7D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
   <si>
     <t>part</t>
   </si>
@@ -369,9 +369,6 @@
     <t>goggles</t>
   </si>
   <si>
-    <t>anti dust mask</t>
-  </si>
-  <si>
     <t>purchased</t>
   </si>
   <si>
@@ -508,6 +505,48 @@
   </si>
   <si>
     <t>BASED ON AVAILABILITY</t>
+  </si>
+  <si>
+    <t>tape between mandrel &amp; epoxy</t>
+  </si>
+  <si>
+    <t>peel ply</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/construction/bois/bois-rabot%C3%A9/bois-brut-j%C3%A9w%C3%A9-impr%C3%A9gn%C3%A9-240x1-9x10cm/2582699</t>
+  </si>
+  <si>
+    <t>purchased?</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>plastic squidgy (CF spreading)</t>
+  </si>
+  <si>
+    <t>sharpie</t>
+  </si>
+  <si>
+    <t>tape measure</t>
+  </si>
+  <si>
+    <t>respirator</t>
+  </si>
+  <si>
+    <t>https://polyestershoppen.be/fr/epoxy/universele-epoxyhars-langzaam-5.html</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/outillage-%C3%A9lectrique/accessoires-d'outils/accessoires-de-soudure/verres-transparents-welco-90-x-110-mm-6-pcs/2883364</t>
   </si>
 </sst>
 </file>
@@ -827,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72:R73"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X70" sqref="X70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,33 +1186,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="L7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>147</v>
+      <c r="V7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
-        <v>106</v>
+        <v>77</v>
+      </c>
+      <c r="V8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="V9" t="s">
+        <v>161</v>
       </c>
       <c r="Z9" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -1187,10 +1224,13 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="V10" t="s">
+        <v>161</v>
       </c>
       <c r="Z10" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -1206,30 +1246,51 @@
         <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>150</v>
+        <v>108</v>
+      </c>
+      <c r="P11" t="s">
+        <v>114</v>
+      </c>
+      <c r="V11" t="s">
+        <v>161</v>
       </c>
       <c r="Z11" t="s">
-        <v>149</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="V12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="L14" t="s">
-        <v>110</v>
+        <v>149</v>
+      </c>
+      <c r="V13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="V16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -1239,6 +1300,12 @@
       <c r="B17" t="s">
         <v>46</v>
       </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="V17" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1247,6 +1314,12 @@
       <c r="B18" t="s">
         <v>47</v>
       </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="V18" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1264,7 +1337,7 @@
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -1277,8 +1350,11 @@
       <c r="L21" t="s">
         <v>64</v>
       </c>
+      <c r="V21" t="s">
+        <v>162</v>
+      </c>
       <c r="Z21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -1291,8 +1367,11 @@
       <c r="L22" t="s">
         <v>102</v>
       </c>
+      <c r="V22" t="s">
+        <v>162</v>
+      </c>
       <c r="Z22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
@@ -1305,8 +1384,11 @@
       <c r="L23" t="s">
         <v>103</v>
       </c>
+      <c r="V23" t="s">
+        <v>162</v>
+      </c>
       <c r="Z23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -1317,10 +1399,13 @@
         <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="V24" t="s">
+        <v>162</v>
       </c>
       <c r="Z24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -1333,8 +1418,11 @@
       <c r="L25" t="s">
         <v>104</v>
       </c>
+      <c r="V25" t="s">
+        <v>161</v>
+      </c>
       <c r="Z25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -1347,8 +1435,11 @@
       <c r="L26" t="s">
         <v>107</v>
       </c>
+      <c r="V26" t="s">
+        <v>161</v>
+      </c>
       <c r="Z26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -1359,10 +1450,13 @@
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="V27" t="s">
+        <v>161</v>
       </c>
       <c r="Z27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -1373,10 +1467,13 @@
         <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="V28" t="s">
+        <v>161</v>
       </c>
       <c r="Z28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -1387,10 +1484,13 @@
         <v>58</v>
       </c>
       <c r="L29" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="V29" t="s">
+        <v>161</v>
       </c>
       <c r="Z29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -1400,6 +1500,15 @@
       <c r="B30" t="s">
         <v>59</v>
       </c>
+      <c r="L30" t="s">
+        <v>164</v>
+      </c>
+      <c r="V30" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1408,44 +1517,88 @@
       <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L34" t="s">
-        <v>101</v>
+      <c r="L31" t="s">
+        <v>165</v>
+      </c>
+      <c r="V31" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>166</v>
+      </c>
+      <c r="V32" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L35" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L36" t="s">
-        <v>152</v>
+        <v>101</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>156</v>
+      </c>
+      <c r="V36" t="s">
+        <v>161</v>
       </c>
       <c r="Z36" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>156</v>
+      </c>
+      <c r="V37" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>156</v>
+      </c>
+      <c r="V38" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>153</v>
+      </c>
+      <c r="V39" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z39" t="s">
         <v>154</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42">
         <v>1022</v>
@@ -1462,6 +1615,9 @@
       <c r="N43">
         <v>1</v>
       </c>
+      <c r="V43" t="s">
+        <v>161</v>
+      </c>
       <c r="W43">
         <v>26.39</v>
       </c>
@@ -1486,6 +1642,12 @@
       <c r="N44">
         <v>1</v>
       </c>
+      <c r="V44" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>163</v>
+      </c>
       <c r="AA44">
         <v>1</v>
       </c>
@@ -1494,41 +1656,89 @@
       <c r="L45" t="s">
         <v>82</v>
       </c>
+      <c r="V45" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="46" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L46" t="s">
         <v>84</v>
       </c>
+      <c r="V46" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="47" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L47" t="s">
         <v>85</v>
       </c>
+      <c r="V47" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="48" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L48" t="s">
         <v>86</v>
       </c>
+      <c r="V48" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="49" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L49" t="s">
         <v>87</v>
       </c>
+      <c r="V49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="50" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L50" t="s">
         <v>88</v>
       </c>
+      <c r="V50" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="51" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L51" t="s">
         <v>89</v>
       </c>
+      <c r="V51" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="52" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L52" t="s">
         <v>90</v>
       </c>
+      <c r="V52" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="59" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L59" t="s">
@@ -1539,112 +1749,199 @@
       <c r="L60" t="s">
         <v>94</v>
       </c>
+      <c r="V60" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="61" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L61" t="s">
         <v>95</v>
       </c>
+      <c r="V61" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="62" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L62" t="s">
         <v>96</v>
       </c>
+      <c r="V62" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="63" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L63" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>156</v>
+      </c>
+      <c r="T63" t="s">
+        <v>121</v>
+      </c>
+      <c r="U63" t="s">
+        <v>120</v>
+      </c>
+      <c r="V63" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z63" t="s">
         <v>117</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>157</v>
-      </c>
-      <c r="T63" t="s">
-        <v>122</v>
-      </c>
-      <c r="U63" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="64" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U64" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="V64" t="s">
+        <v>161</v>
       </c>
       <c r="Z64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L65" t="s">
         <v>97</v>
       </c>
+      <c r="V65" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="66" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L66" t="s">
         <v>98</v>
       </c>
+      <c r="V66" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>157</v>
+      </c>
+      <c r="V67" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L68" t="s">
+        <v>158</v>
+      </c>
+      <c r="V68" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>169</v>
+      </c>
+      <c r="V69" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="72" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L73" t="s">
         <v>99</v>
       </c>
+      <c r="V73" t="s">
+        <v>161</v>
+      </c>
       <c r="Z73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L74" t="s">
         <v>100</v>
       </c>
+      <c r="V74" t="s">
+        <v>161</v>
+      </c>
       <c r="Z74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L75" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="V75" t="s">
+        <v>161</v>
       </c>
       <c r="Z75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L76" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="V76" t="s">
+        <v>161</v>
       </c>
       <c r="Z76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L77" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="V77" t="s">
+        <v>161</v>
       </c>
       <c r="Z77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L78" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="V78" t="s">
+        <v>162</v>
       </c>
       <c r="Z78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="12:25" x14ac:dyDescent="0.3">

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B180B3D-DDAE-4A37-8F53-43A3CDC7D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF72E44-1EF5-4A22-99FB-C641A12DDF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>part</t>
   </si>
@@ -547,16 +547,102 @@
   </si>
   <si>
     <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/outillage-%C3%A9lectrique/accessoires-d'outils/accessoires-de-soudure/verres-transparents-welco-90-x-110-mm-6-pcs/2883364</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/AmazonBasics-Lot-24-marqueurs-indélébiles-Assortis/dp/B06ZZX41Q1/ref=sr_1_20?__mk_fr_FR=ÅMÅŽÕÑ&amp;dchild=1&amp;keywords=Sharpie&amp;qid=1624703292&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Mesurer-Rétractable-Métrique-Standard-Autobloquant/dp/B08T1CNYHF/ref=sr_1_5?__mk_fr_FR=ÅMÅŽÕÑ&amp;dchild=1&amp;keywords=Tape+measure&amp;qid=1624703401&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://compositesplaza.com/product/low-viscosity-epoxy-resin-for-hand-lamination/</t>
+  </si>
+  <si>
+    <t>included/ same link</t>
+  </si>
+  <si>
+    <t>https://compositesplaza.com/product/cutlength-industrial-twill-carbon-fabric-200-g_m2-100-cm/</t>
+  </si>
+  <si>
+    <t>Brush</t>
+  </si>
+  <si>
+    <t>https://polyestershoppen.be/fr/hulpmaterialen/lamineerspatel-134.html</t>
+  </si>
+  <si>
+    <t>https://polyestershoppen.be/fr/hulpmaterialen/verpakkingstape-50mm-173.html</t>
+  </si>
+  <si>
+    <t>mixing cup</t>
+  </si>
+  <si>
+    <t>https://polyestershoppen.be/fr/hulpmaterialen/mengbekers-74.html</t>
+  </si>
+  <si>
+    <t>https://polyestershoppen.be/fr/hulpmaterialen/ronde-wegwerpkwasten-69.html</t>
+  </si>
+  <si>
+    <t>https://polyestershoppen.be/fr/hulpmaterialen/losmiddel-pva-72.html</t>
+  </si>
+  <si>
+    <t>https://polyestershoppen.be/fr/hulpmaterialen/afplakband-129.html</t>
+  </si>
+  <si>
+    <t>https://www.mcmracing.com/fr/home/40613-wood-bois-woopb25-planche-balsa-1000-x-100-x-25-mm-4016652100254</t>
+  </si>
+  <si>
+    <t>y (mcmracing)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/bobotron-Gaine-thermorétractable-rétractables-Transparent/dp/B08P745XZQ/ref=sr_1_1?__mk_fr_FR=ÅMÅŽÕÑ&amp;dchild=1&amp;keywords=bobotron+Gaine+thermorétractable+en+PVC+70+mm+pour+4+films+rétractables+18650+Transparent+5+m&amp;qid=1624832036&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Spray coolant</t>
+  </si>
+  <si>
+    <t>wood for cnc base</t>
+  </si>
+  <si>
+    <t>BMS?</t>
+  </si>
+  <si>
+    <t>washers</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/rondelles/rondelle-plate-sencys-acier-galvanis%C3%A9-3-mm-100-pcs/5367636</t>
+  </si>
+  <si>
+    <t>already have</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/transformation-Nettoyage-domestique-Utilisation-Jardinage/dp/B0859GFKQ9/ref=sr_1_16?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=gants+jetables+latex&amp;qid=1624898845&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Lunettes-de-sécurité-3MTM-2820/dp/B00BFWBFEW/ref=sr_1_9?__mk_fr_FR=ÅMÅŽÕÑ&amp;dchild=1&amp;keywords=lunettes+de+securite&amp;qid=1624899051&amp;sr=8-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -579,13 +665,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -864,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AB106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X70" sqref="X70"/>
+    <sheetView tabSelected="1" topLeftCell="K40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y75" sqref="Y75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,7 +1048,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROUNDUP(O85*10^-3,3)</f>
+        <f>ROUNDUP(O92*10^-3,3)</f>
         <v>6.9690000000000003</v>
       </c>
       <c r="B2">
@@ -1050,7 +1139,7 @@
         <v>48.5</v>
       </c>
       <c r="N3">
-        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N88, 0) * N88</f>
+        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N95, 0) * N95</f>
         <v>84</v>
       </c>
       <c r="O3">
@@ -1157,7 +1246,7 @@
         <v>62</v>
       </c>
       <c r="M5">
-        <f>S5*S88</f>
+        <f>S5*S95</f>
         <v>1.3805684000000005</v>
       </c>
       <c r="N5">
@@ -1199,7 +1288,7 @@
         <v>161</v>
       </c>
       <c r="Z8" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1224,13 +1313,13 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="V10" t="s">
         <v>161</v>
       </c>
       <c r="Z10" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -1246,51 +1335,49 @@
         <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="V11" t="s">
         <v>161</v>
       </c>
       <c r="Z11" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="P12" t="s">
+        <v>114</v>
       </c>
       <c r="V12" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>147</v>
+        <v>162</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="V13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
         <v>149</v>
       </c>
-      <c r="V13" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="V14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z14" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="L15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="L16" t="s">
-        <v>110</v>
-      </c>
-      <c r="V16" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -1300,12 +1387,6 @@
       <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="L17" t="s">
-        <v>167</v>
-      </c>
-      <c r="V17" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1315,10 +1396,7 @@
         <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
-      </c>
-      <c r="V18" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -1328,6 +1406,15 @@
       <c r="B19" t="s">
         <v>48</v>
       </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1337,7 +1424,13 @@
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>167</v>
+      </c>
+      <c r="V20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -1348,13 +1441,13 @@
         <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="V21" t="s">
         <v>162</v>
       </c>
       <c r="Z21" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -1364,15 +1457,6 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="L22" t="s">
-        <v>102</v>
-      </c>
-      <c r="V22" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1382,13 +1466,7 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>103</v>
-      </c>
-      <c r="V23" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -1399,7 +1477,7 @@
         <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="V24" t="s">
         <v>162</v>
@@ -1416,13 +1494,13 @@
         <v>54</v>
       </c>
       <c r="L25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z25" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -1433,13 +1511,13 @@
         <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V26" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>139</v>
+        <v>162</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -1450,13 +1528,13 @@
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="V27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z27" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -1467,13 +1545,13 @@
         <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="V28" t="s">
         <v>161</v>
       </c>
       <c r="Z28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -1484,13 +1562,13 @@
         <v>58</v>
       </c>
       <c r="L29" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="V29" t="s">
         <v>161</v>
       </c>
       <c r="Z29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -1501,13 +1579,13 @@
         <v>59</v>
       </c>
       <c r="L30" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="V30" t="s">
         <v>161</v>
       </c>
       <c r="Z30" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -1518,165 +1596,145 @@
         <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="V31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z31" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L32" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="V32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z32" t="s">
-        <v>163</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+      <c r="V33" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>165</v>
+      </c>
+      <c r="V34" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L35" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="V35" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L36" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="V36" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L37" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="V37" t="s">
         <v>161</v>
       </c>
       <c r="Z37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L38" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>156</v>
-      </c>
-      <c r="V38" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L39" t="s">
-        <v>153</v>
-      </c>
-      <c r="V39" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L42" t="s">
-        <v>133</v>
-      </c>
-      <c r="O42">
-        <v>1022</v>
-      </c>
-      <c r="Y42">
-        <f>ROUNDUP(N42*W42*(1+X42), 2)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L43" t="s">
-        <v>80</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>156</v>
       </c>
       <c r="V43" t="s">
         <v>161</v>
       </c>
-      <c r="W43">
-        <v>26.39</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <f>ROUNDUP(N43*W43*(1+X43), 2)</f>
-        <v>26.39</v>
-      </c>
       <c r="Z43" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA43">
-        <v>1</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L44" t="s">
-        <v>81</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>156</v>
       </c>
       <c r="V44" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA44">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
-        <v>82</v>
+        <v>151</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>156</v>
       </c>
       <c r="V45" t="s">
         <v>161</v>
       </c>
       <c r="Z45" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L46" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="V46" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L47" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="V47" t="s">
         <v>161</v>
@@ -1685,42 +1743,51 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L48" t="s">
-        <v>86</v>
-      </c>
-      <c r="V48" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="12:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L49" t="s">
-        <v>87</v>
-      </c>
-      <c r="V49" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="12:26" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="O49">
+        <v>1022</v>
+      </c>
+      <c r="Y49">
+        <f>ROUNDUP(N49*W49*(1+X49), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L50" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
       </c>
       <c r="V50" t="s">
         <v>161</v>
       </c>
+      <c r="W50">
+        <v>26.39</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f>ROUNDUP(N50*W50*(1+X50), 2)</f>
+        <v>26.39</v>
+      </c>
       <c r="Z50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="12:26" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L51" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
       </c>
       <c r="V51" t="s">
         <v>161</v>
@@ -1728,10 +1795,13 @@
       <c r="Z51" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="52" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="AA51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L52" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="V52" t="s">
         <v>161</v>
@@ -1740,312 +1810,431 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="12:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>84</v>
+      </c>
+      <c r="V53" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>85</v>
+      </c>
+      <c r="V54" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L55" t="s">
+        <v>86</v>
+      </c>
+      <c r="V55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L56" t="s">
+        <v>87</v>
+      </c>
+      <c r="V56" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>88</v>
+      </c>
+      <c r="V57" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>89</v>
+      </c>
+      <c r="V58" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L59" t="s">
+        <v>90</v>
+      </c>
+      <c r="V59" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L60" t="s">
+    <row r="67" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
         <v>94</v>
       </c>
-      <c r="V60" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z60" t="s">
+      <c r="V67" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA67" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L61" t="s">
+    <row r="68" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L68" t="s">
         <v>95</v>
       </c>
-      <c r="V61" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z61" t="s">
+      <c r="V68" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>96</v>
+      </c>
+      <c r="V69" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L70" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>156</v>
+      </c>
+      <c r="T70" t="s">
+        <v>121</v>
+      </c>
+      <c r="U70" t="s">
+        <v>120</v>
+      </c>
+      <c r="V70" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L71" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>156</v>
+      </c>
+      <c r="T71" t="s">
+        <v>121</v>
+      </c>
+      <c r="U71" t="s">
+        <v>119</v>
+      </c>
+      <c r="V71" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>97</v>
+      </c>
+      <c r="V72" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>98</v>
+      </c>
+      <c r="V73" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>157</v>
+      </c>
+      <c r="V74" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L75" t="s">
+        <v>158</v>
+      </c>
+      <c r="V75" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L76" t="s">
+        <v>169</v>
+      </c>
+      <c r="V76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L77" t="s">
+        <v>179</v>
+      </c>
+      <c r="V77" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L80" t="s">
+        <v>99</v>
+      </c>
+      <c r="V80" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L81" t="s">
+        <v>100</v>
+      </c>
+      <c r="V81" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L82" t="s">
+        <v>123</v>
+      </c>
+      <c r="V82" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z82" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L62" t="s">
-        <v>96</v>
-      </c>
-      <c r="V62" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L63" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>156</v>
-      </c>
-      <c r="T63" t="s">
-        <v>121</v>
-      </c>
-      <c r="U63" t="s">
-        <v>120</v>
-      </c>
-      <c r="V63" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L64" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>156</v>
-      </c>
-      <c r="T64" t="s">
-        <v>121</v>
-      </c>
-      <c r="U64" t="s">
-        <v>119</v>
-      </c>
-      <c r="V64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L65" t="s">
-        <v>97</v>
-      </c>
-      <c r="V65" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L66" t="s">
-        <v>98</v>
-      </c>
-      <c r="V66" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L67" t="s">
-        <v>157</v>
-      </c>
-      <c r="V67" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L68" t="s">
-        <v>158</v>
-      </c>
-      <c r="V68" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L69" t="s">
-        <v>169</v>
-      </c>
-      <c r="V69" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L73" t="s">
-        <v>99</v>
-      </c>
-      <c r="V73" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L74" t="s">
-        <v>100</v>
-      </c>
-      <c r="V74" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L75" t="s">
-        <v>123</v>
-      </c>
-      <c r="V75" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L76" t="s">
+    <row r="83" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
         <v>128</v>
       </c>
-      <c r="V76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z76" t="s">
+      <c r="V83" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z83" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L77" t="s">
+    <row r="84" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
         <v>131</v>
       </c>
-      <c r="V77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z77" t="s">
+      <c r="V84" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z84" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L78" t="s">
+    <row r="85" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
         <v>129</v>
       </c>
-      <c r="V78" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z78" t="s">
+      <c r="V85" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="12:25" x14ac:dyDescent="0.3">
-      <c r="L85" t="s">
+    <row r="92" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
         <v>15</v>
       </c>
-      <c r="O85">
-        <f>O2+O3+O4+O5+O42+O43+O44</f>
+      <c r="O92">
+        <f>O2+O3+O4+O5+O49+O50+O51</f>
         <v>6968.7926299999999</v>
       </c>
-      <c r="Y85">
+      <c r="Y92">
         <f>Y3+Y2+Y4</f>
         <v>304.71000000000004</v>
       </c>
     </row>
-    <row r="87" spans="12:25" x14ac:dyDescent="0.3">
-      <c r="L87" t="s">
+    <row r="94" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L94" t="s">
         <v>23</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M94" t="s">
         <v>60</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N94" t="s">
         <v>24</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O94" t="s">
         <v>29</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P94" t="s">
         <v>79</v>
       </c>
-      <c r="S87" t="s">
+      <c r="S94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="12:25" x14ac:dyDescent="0.3">
-      <c r="M88">
+    <row r="95" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M95">
         <f>N3*R3*10^-3</f>
         <v>5.67</v>
       </c>
-      <c r="N88">
+      <c r="N95">
         <v>6</v>
       </c>
-      <c r="O88">
+      <c r="O95">
         <f>AB2 * W2 + AB3 * W3+ AB4 * W4</f>
         <v>364.25</v>
       </c>
-      <c r="P88">
+      <c r="P95">
         <f>T2*N2</f>
         <v>307.52</v>
       </c>
-      <c r="S88">
+      <c r="S95">
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="12:25" x14ac:dyDescent="0.3">
-      <c r="W95" t="s">
+    <row r="102" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="W102" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="12:25" x14ac:dyDescent="0.3">
-      <c r="W96">
+    <row r="103" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="W103">
         <v>18.7</v>
       </c>
     </row>
-    <row r="98" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L98" t="s">
+    <row r="105" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L105" t="s">
         <v>70</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M105" t="s">
         <v>65</v>
       </c>
-      <c r="N98" t="s">
+      <c r="N105" t="s">
         <v>66</v>
       </c>
-      <c r="O98" t="s">
+      <c r="O105" t="s">
         <v>67</v>
       </c>
-      <c r="P98" t="s">
+      <c r="P105" t="s">
         <v>68</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="Q105" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="M99">
+    <row r="106" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M106">
         <f>D2/(0.305 * C2/5695 * 10^3)</f>
         <v>1.1296639344262294</v>
       </c>
-      <c r="N99">
+      <c r="N106">
         <f>0.305 * C2/5695 * 10^3</f>
         <v>0.32133450395083407</v>
       </c>
-      <c r="P99">
+      <c r="P106">
         <f>C2/D2</f>
         <v>16.528925619834713</v>
       </c>
-      <c r="Q99">
+      <c r="Q106">
         <f>5.695*D2/0.305</f>
         <v>6.7779836065573775</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Z33" r:id="rId1" xr:uid="{2C8B1182-8BB8-7F41-94DB-EE37A33F6DC0}"/>
+    <hyperlink ref="Z34" r:id="rId2" xr:uid="{4383EFF2-D0DF-F14C-A08E-7C94A37F4BDF}"/>
+    <hyperlink ref="Z35" r:id="rId3" xr:uid="{F0E69F05-7489-1C43-9C18-2BEBC0C73E3C}"/>
+    <hyperlink ref="Z67" r:id="rId4" xr:uid="{3DD539EB-89FB-E743-9637-D841300BCC81}"/>
+    <hyperlink ref="Z69" r:id="rId5" xr:uid="{4F53B6DB-034E-9942-A4EC-5B6C98F80428}"/>
+    <hyperlink ref="AA67" r:id="rId6" xr:uid="{FADCD529-0888-444F-9231-C20587DFF023}"/>
+    <hyperlink ref="Z74" r:id="rId7" xr:uid="{FECD0C62-22F2-E54F-98F9-22EC85B9CDF6}"/>
+    <hyperlink ref="Z77" r:id="rId8" xr:uid="{66C4CDF9-F481-DA4F-9D3E-733137AFF2FE}"/>
+    <hyperlink ref="Z36" r:id="rId9" xr:uid="{9068BB7F-7658-4047-B40A-3A50DA5B3C6D}"/>
+    <hyperlink ref="Z73" r:id="rId10" xr:uid="{F9AE6039-F79F-7845-B65B-33CE4D1B58BE}"/>
+    <hyperlink ref="Z75" r:id="rId11" xr:uid="{D3ECE977-59A8-8745-A846-3EFCC67053BE}"/>
+    <hyperlink ref="Z12" r:id="rId12" xr:uid="{48ED7D68-BDF1-E741-ADC4-A8677E37C355}"/>
+    <hyperlink ref="Z26" r:id="rId13" xr:uid="{52E75EB8-A916-9241-B600-DC7494E2DAAC}"/>
+    <hyperlink ref="Z44" r:id="rId14" xr:uid="{B84361CF-3B0F-CE48-919A-E1AB18B9E15C}"/>
+    <hyperlink ref="AA44" r:id="rId15" xr:uid="{8EE10E62-B70E-8C4B-93B8-FE4A223BA292}"/>
+    <hyperlink ref="Z46" r:id="rId16" location="customerReviews" xr:uid="{ACFE21C6-89B5-E046-A87F-BC5C0756B7CE}"/>
+    <hyperlink ref="Z72" r:id="rId17" xr:uid="{84450569-E3CE-7F4A-B170-589930F8B189}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF72E44-1EF5-4A22-99FB-C641A12DDF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6309BDF2-3170-464E-B459-64FA3A41215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="219">
   <si>
     <t>part</t>
   </si>
@@ -306,9 +306,6 @@
     <t>sensors</t>
   </si>
   <si>
-    <t>power splitter</t>
-  </si>
-  <si>
     <t>volume (cm^3)</t>
   </si>
   <si>
@@ -619,6 +616,81 @@
   </si>
   <si>
     <t>https://www.amazon.fr/Lunettes-de-sécurité-3MTM-2820/dp/B00BFWBFEW/ref=sr_1_9?__mk_fr_FR=ÅMÅŽÕÑ&amp;dchild=1&amp;keywords=lunettes+de+securite&amp;qid=1624899051&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/turnigy-plush-32-30a-2-4s-brushless-speed-controller-w-bec-rev1-1-0.html?queryID=db84bf16a005d4d86b6c14c4f854c216&amp;objectID=86262&amp;indexName=hbk_live_products_analytics</t>
+  </si>
+  <si>
+    <t>moulds: fuselage, wing &amp; rudder &amp; elevator connectors</t>
+  </si>
+  <si>
+    <t>https://www.befr.ebay.be/itm/392172199853?hash=item5b4f48dfad:g:PeIAAOSwUqVb6il2</t>
+  </si>
+  <si>
+    <t>push rods</t>
+  </si>
+  <si>
+    <t>servo arm</t>
+  </si>
+  <si>
+    <t>solar cell encapsulation:</t>
+  </si>
+  <si>
+    <t>laminating machine</t>
+  </si>
+  <si>
+    <t>laminating film</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Chapuis-FIP12-corde-piano-acier/dp/B00AKA9ITO/ref=sr_1_1?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=1.2mm+piano+wire&amp;qid=1624977081&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>servo wire?</t>
+  </si>
+  <si>
+    <t>not needed</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/dp/B07D35YXSN/ref=sspa_dk_hqp_detail_aax_0?psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExV1NON0EwQzJCN09NJmVuY3J5cHRlZElkPUEwNjA1MjYyMkE3WkRLQTlBU1RDSCZlbmNyeXB0ZWRBZElkPUEwNDMwNzU1MjlGWDk0OVRMT09CWSZ3aWRnZXROYW1lPXNwX2hxcF9zaGFyZWQmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/Matek-Systems-F405-WING-(New)-STM32F405-Flight-Controller-Built-in-OSD-for-RC-Airplane-Fixed-Wing-p-1292190.html?rmmds=myorder&amp;cur_warehouse=CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>included in FC</t>
+  </si>
+  <si>
+    <t>power splitter (PDB)</t>
+  </si>
+  <si>
+    <t>https://nl.banggood.com/Beitian-BN-880-Flight-Control-GPS-Module-Dual-Module-Compass-With-Cable-for-RC-Drone-FPV-Racing-p-971082.html?utm_source=googleshopping&amp;utm_medium=cpc_organic&amp;gmcCountry=BE&amp;utm_content=minha&amp;utm_campaign=minha-beg-nl-pc&amp;currency=EUR&amp;cur_warehouse=ES&amp;createTmp=1</t>
+  </si>
+  <si>
+    <t>https://www.befr.ebay.be/itm/392960213723?_trkparms=ispr%3D1&amp;hash=item5b7e4102db:g:~FYAAOSwARxfcGi3&amp;amdata=enc%3AAQAGAAACgPYe5NmHp%252B2JMhMi7yxGiTJkPrKr5t53CooMSQt2orsSU8qUIAeVPdz29zRlje3Lg%252FT1%252FKuOIh8r5%252Fu5OtT7xdQHojqsHnzp%252BRXRsCX%252BoqAkhWjSI2S8Q1f88cnnESPBjyoLtWxTgmHjDhpx7Wq4nilE4iNjyDAUjo5u2%252BEPxTHECVbSzLAN8P1ulOnIhZl0rqopyywq6hvjAwNvv6czUmlvIQYxQadjQvtq1tufTLYHpTndXotIZ6Ngp5o06bLRUOkzqIfpbb8Vp7XxJFSTGKM2k36lf6tjKU%252BBDZYnV8tSH%252BxqMICl0Knu37lGweQCI7ZkAB6J2lFHmDHHdyjw%252BpRRIG%252BpiTktc9HHVAIuiiJ7NLXyzuIH%252Bq2aKN%252BeOB6pxhuy8XOYBXwNHLNbhsgHJqAW7dgu2AaRYkS3Y2mhmuqwuJiak2MHHQoLDCErAEQN75JuLxRtos6RnC9x0amSMQwwjBXjQ%252BxHHzmwouPlibctK5oXUveq%252BzHQORvUtGuTJfy1X2m2uq1pwKxvZA2wsPX%252FbMyLMOrLYdHZ3xvBrW61ZICDy3rzETHGLHwOVxS6S24630QvfiElqo%252FhAqEOIsUC0hc0bFXNMFtyslmDsGKFL2XPPim58TRR20FYgnGpXM%252FgXgYBKOU719pewJUqYbJTTsxUFeYuhVDtoupRSanQBSAyRXMs8InTbYW1%252BWxzY5WE%252BRO1MmWmYucS4PKPC%252BpGb8B7F7xxd6YzZ40deGTFKKbjxysW%252FSlOzWbeHfzzxQQU7%252FeJhnmrT1wdeMuWNNECpB%252FIkuwCTjArfgFEkTX%252B1%252BK3ofK6omKLcyk5%252Bjvb2Liu%252FiPkrJPE3Bhq%252FGviPxI%253D%7Campid%3APL_CLK%7Cclp%3A2334524</t>
+  </si>
+  <si>
+    <t>telemetry radio system (for mission planner connection)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>already got</t>
+  </si>
+  <si>
+    <t>fpv2 mask already got</t>
+  </si>
+  <si>
+    <t>already got (chipboard in closet)</t>
+  </si>
+  <si>
+    <t>y*</t>
+  </si>
+  <si>
+    <t>n*</t>
   </si>
 </sst>
 </file>
@@ -955,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y75" sqref="Y75"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T1" t="s">
         <v>7</v>
@@ -1048,7 +1120,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROUNDUP(O92*10^-3,3)</f>
+        <f>ROUNDUP(O95*10^-3,3)</f>
         <v>6.9690000000000003</v>
       </c>
       <c r="B2">
@@ -1139,7 +1211,7 @@
         <v>48.5</v>
       </c>
       <c r="N3">
-        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N95, 0) * N95</f>
+        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N98, 0) * N98</f>
         <v>84</v>
       </c>
       <c r="O3">
@@ -1246,7 +1318,7 @@
         <v>62</v>
       </c>
       <c r="M5">
-        <f>S5*S95</f>
+        <f>S5*S98</f>
         <v>1.3805684000000005</v>
       </c>
       <c r="N5">
@@ -1277,7 +1349,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="V7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -1285,21 +1357,21 @@
         <v>77</v>
       </c>
       <c r="V8" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="Z8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -1313,13 +1385,13 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z10" t="s">
         <v>190</v>
-      </c>
-      <c r="V10" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -1335,49 +1407,52 @@
         <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V13" t="s">
-        <v>161</v>
+        <v>218</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>204</v>
       </c>
       <c r="Z13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -1396,7 +1471,7 @@
         <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -1407,13 +1482,13 @@
         <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
@@ -1424,13 +1499,13 @@
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V20" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -1441,13 +1516,13 @@
         <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -1466,7 +1541,7 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -1480,10 +1555,10 @@
         <v>64</v>
       </c>
       <c r="V24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -1494,13 +1569,13 @@
         <v>54</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -1511,13 +1586,13 @@
         <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -1528,13 +1603,13 @@
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -1545,13 +1620,13 @@
         <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V28" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="Z28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -1562,13 +1637,13 @@
         <v>58</v>
       </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -1579,13 +1654,13 @@
         <v>59</v>
       </c>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -1596,156 +1671,159 @@
         <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V37" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="Z37" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L43" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="N43" t="s">
+        <v>195</v>
       </c>
       <c r="Q43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>155</v>
+      </c>
+      <c r="V45" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z45" t="s">
         <v>151</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>156</v>
-      </c>
-      <c r="V45" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="46" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L46" t="s">
+        <v>152</v>
+      </c>
+      <c r="V46" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z46" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="V46" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V47" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="Z47" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O49">
         <v>1022</v>
@@ -1763,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W50">
         <v>26.39</v>
@@ -1790,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z51" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="AA51">
         <v>1</v>
@@ -1804,10 +1882,10 @@
         <v>82</v>
       </c>
       <c r="V52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z52" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="12:27" x14ac:dyDescent="0.3">
@@ -1815,354 +1893,443 @@
         <v>84</v>
       </c>
       <c r="V53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z53" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L54" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="V54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z54" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L55" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="V55" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="Z55" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L56" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="V56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z56" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z57" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z58" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V59" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="W59" t="s">
+        <v>213</v>
       </c>
       <c r="Z59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L67" t="s">
-        <v>94</v>
-      </c>
-      <c r="V67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V60" t="s">
+        <v>160</v>
+      </c>
+      <c r="W60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z60" t="s">
         <v>162</v>
       </c>
-      <c r="Z67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA67" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L68" t="s">
-        <v>95</v>
-      </c>
-      <c r="V68" t="s">
+    </row>
+    <row r="61" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L61" t="s">
+        <v>212</v>
+      </c>
+      <c r="V61" t="s">
+        <v>160</v>
+      </c>
+      <c r="W61" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z61" t="s">
         <v>162</v>
       </c>
-      <c r="Z68" t="s">
-        <v>174</v>
+    </row>
+    <row r="62" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>89</v>
+      </c>
+      <c r="V62" t="s">
+        <v>217</v>
+      </c>
+      <c r="X62" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>209</v>
+      </c>
+      <c r="V63" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L64" t="s">
+        <v>188</v>
+      </c>
+      <c r="V64" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L69" t="s">
-        <v>96</v>
-      </c>
-      <c r="V69" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L70" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>156</v>
-      </c>
-      <c r="T70" t="s">
-        <v>121</v>
-      </c>
-      <c r="U70" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="V70" t="s">
         <v>161</v>
       </c>
-      <c r="Z70" t="s">
-        <v>117</v>
+      <c r="Z70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L71" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>156</v>
-      </c>
-      <c r="T71" t="s">
-        <v>121</v>
-      </c>
-      <c r="U71" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="V71" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="Z71" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L73" t="s">
-        <v>98</v>
+        <v>115</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>155</v>
+      </c>
+      <c r="T73" t="s">
+        <v>120</v>
+      </c>
+      <c r="U73" t="s">
+        <v>119</v>
       </c>
       <c r="V73" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z73" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L74" t="s">
-        <v>157</v>
+        <v>114</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>155</v>
+      </c>
+      <c r="T74" t="s">
+        <v>120</v>
+      </c>
+      <c r="U74" t="s">
+        <v>118</v>
       </c>
       <c r="V74" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z74" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L75" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="V75" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L76" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="V76" t="s">
         <v>161</v>
       </c>
-      <c r="Z76" t="s">
-        <v>170</v>
+      <c r="Z76" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L77" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="V77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
+        <v>157</v>
+      </c>
+      <c r="V78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y78" t="s">
         <v>162</v>
       </c>
-      <c r="Z77" s="1" t="s">
-        <v>180</v>
+      <c r="Z78" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L79" t="s">
-        <v>122</v>
+        <v>168</v>
+      </c>
+      <c r="V79" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L80" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="V80" t="s">
         <v>161</v>
       </c>
-      <c r="Z80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L81" t="s">
-        <v>100</v>
-      </c>
-      <c r="V81" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>136</v>
+      <c r="Z80" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L82" t="s">
-        <v>123</v>
-      </c>
-      <c r="V82" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L83" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="V83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z83" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L84" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="V84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z84" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L85" t="s">
+        <v>122</v>
+      </c>
+      <c r="V85" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L86" t="s">
+        <v>127</v>
+      </c>
+      <c r="V86" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L87" t="s">
+        <v>130</v>
+      </c>
+      <c r="V87" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z87" t="s">
         <v>129</v>
       </c>
-      <c r="V85" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>111</v>
+    </row>
+    <row r="88" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L88" t="s">
+        <v>128</v>
+      </c>
+      <c r="V88" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L91" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L92" t="s">
+        <v>200</v>
+      </c>
+      <c r="V92" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L93" t="s">
+        <v>201</v>
+      </c>
+      <c r="V93" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L95" t="s">
         <v>15</v>
       </c>
-      <c r="O92">
+      <c r="O95">
         <f>O2+O3+O4+O5+O49+O50+O51</f>
         <v>6968.7926299999999</v>
       </c>
-      <c r="Y92">
+      <c r="Y95">
         <f>Y3+Y2+Y4</f>
         <v>304.71000000000004</v>
       </c>
     </row>
-    <row r="94" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L94" t="s">
+    <row r="97" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L97" t="s">
         <v>23</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M97" t="s">
         <v>60</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N97" t="s">
         <v>24</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O97" t="s">
         <v>29</v>
       </c>
-      <c r="P94" t="s">
+      <c r="P97" t="s">
         <v>79</v>
       </c>
-      <c r="S94" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="M95">
+      <c r="S97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M98">
         <f>N3*R3*10^-3</f>
         <v>5.67</v>
       </c>
-      <c r="N95">
+      <c r="N98">
         <v>6</v>
       </c>
-      <c r="O95">
+      <c r="O98">
         <f>AB2 * W2 + AB3 * W3+ AB4 * W4</f>
         <v>364.25</v>
       </c>
-      <c r="P95">
+      <c r="P98">
         <f>T2*N2</f>
         <v>307.52</v>
       </c>
-      <c r="S95">
+      <c r="S98">
         <v>0.2</v>
       </c>
     </row>
@@ -2220,20 +2387,20 @@
     <hyperlink ref="Z33" r:id="rId1" xr:uid="{2C8B1182-8BB8-7F41-94DB-EE37A33F6DC0}"/>
     <hyperlink ref="Z34" r:id="rId2" xr:uid="{4383EFF2-D0DF-F14C-A08E-7C94A37F4BDF}"/>
     <hyperlink ref="Z35" r:id="rId3" xr:uid="{F0E69F05-7489-1C43-9C18-2BEBC0C73E3C}"/>
-    <hyperlink ref="Z67" r:id="rId4" xr:uid="{3DD539EB-89FB-E743-9637-D841300BCC81}"/>
-    <hyperlink ref="Z69" r:id="rId5" xr:uid="{4F53B6DB-034E-9942-A4EC-5B6C98F80428}"/>
-    <hyperlink ref="AA67" r:id="rId6" xr:uid="{FADCD529-0888-444F-9231-C20587DFF023}"/>
-    <hyperlink ref="Z74" r:id="rId7" xr:uid="{FECD0C62-22F2-E54F-98F9-22EC85B9CDF6}"/>
-    <hyperlink ref="Z77" r:id="rId8" xr:uid="{66C4CDF9-F481-DA4F-9D3E-733137AFF2FE}"/>
+    <hyperlink ref="Z70" r:id="rId4" xr:uid="{3DD539EB-89FB-E743-9637-D841300BCC81}"/>
+    <hyperlink ref="Z72" r:id="rId5" xr:uid="{4F53B6DB-034E-9942-A4EC-5B6C98F80428}"/>
+    <hyperlink ref="AA70" r:id="rId6" xr:uid="{FADCD529-0888-444F-9231-C20587DFF023}"/>
+    <hyperlink ref="Z77" r:id="rId7" xr:uid="{FECD0C62-22F2-E54F-98F9-22EC85B9CDF6}"/>
+    <hyperlink ref="Z80" r:id="rId8" xr:uid="{66C4CDF9-F481-DA4F-9D3E-733137AFF2FE}"/>
     <hyperlink ref="Z36" r:id="rId9" xr:uid="{9068BB7F-7658-4047-B40A-3A50DA5B3C6D}"/>
-    <hyperlink ref="Z73" r:id="rId10" xr:uid="{F9AE6039-F79F-7845-B65B-33CE4D1B58BE}"/>
-    <hyperlink ref="Z75" r:id="rId11" xr:uid="{D3ECE977-59A8-8745-A846-3EFCC67053BE}"/>
+    <hyperlink ref="Z76" r:id="rId10" xr:uid="{F9AE6039-F79F-7845-B65B-33CE4D1B58BE}"/>
+    <hyperlink ref="Z78" r:id="rId11" xr:uid="{D3ECE977-59A8-8745-A846-3EFCC67053BE}"/>
     <hyperlink ref="Z12" r:id="rId12" xr:uid="{48ED7D68-BDF1-E741-ADC4-A8677E37C355}"/>
     <hyperlink ref="Z26" r:id="rId13" xr:uid="{52E75EB8-A916-9241-B600-DC7494E2DAAC}"/>
     <hyperlink ref="Z44" r:id="rId14" xr:uid="{B84361CF-3B0F-CE48-919A-E1AB18B9E15C}"/>
     <hyperlink ref="AA44" r:id="rId15" xr:uid="{8EE10E62-B70E-8C4B-93B8-FE4A223BA292}"/>
     <hyperlink ref="Z46" r:id="rId16" location="customerReviews" xr:uid="{ACFE21C6-89B5-E046-A87F-BC5C0756B7CE}"/>
-    <hyperlink ref="Z72" r:id="rId17" xr:uid="{84450569-E3CE-7F4A-B170-589930F8B189}"/>
+    <hyperlink ref="Z75" r:id="rId17" xr:uid="{84450569-E3CE-7F4A-B170-589930F8B189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6309BDF2-3170-464E-B459-64FA3A41215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7BB7DC-FC6E-4AFE-A57A-439BB4A34883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="227">
   <si>
     <t>part</t>
   </si>
@@ -285,9 +285,6 @@
     <t>gearbox</t>
   </si>
   <si>
-    <t>https://hobbyking.com/en_us/turnigy-aerodrive-sk3-2836-1040kv-brushless-outrunner-motor.html?queryID=b1dd1f95be3adf81b41ffce9db689c7b&amp;objectID=17166&amp;indexName=hbk_live_products_analytics</t>
-  </si>
-  <si>
     <t>servos</t>
   </si>
   <si>
@@ -600,9 +597,6 @@
     <t>wood for cnc base</t>
   </si>
   <si>
-    <t>BMS?</t>
-  </si>
-  <si>
     <t>washers</t>
   </si>
   <si>
@@ -618,15 +612,9 @@
     <t>https://www.amazon.fr/Lunettes-de-sécurité-3MTM-2820/dp/B00BFWBFEW/ref=sr_1_9?__mk_fr_FR=ÅMÅŽÕÑ&amp;dchild=1&amp;keywords=lunettes+de+securite&amp;qid=1624899051&amp;sr=8-9</t>
   </si>
   <si>
-    <t>https://hobbyking.com/en_us/turnigy-plush-32-30a-2-4s-brushless-speed-controller-w-bec-rev1-1-0.html?queryID=db84bf16a005d4d86b6c14c4f854c216&amp;objectID=86262&amp;indexName=hbk_live_products_analytics</t>
-  </si>
-  <si>
     <t>moulds: fuselage, wing &amp; rudder &amp; elevator connectors</t>
   </si>
   <si>
-    <t>https://www.befr.ebay.be/itm/392172199853?hash=item5b4f48dfad:g:PeIAAOSwUqVb6il2</t>
-  </si>
-  <si>
     <t>push rods</t>
   </si>
   <si>
@@ -691,13 +679,49 @@
   </si>
   <si>
     <t>n*</t>
+  </si>
+  <si>
+    <t>https://www.befr.ebay.be/itm/172985765273?hash=item2846c14d99:g:OsEAAOSwygVfAwFI</t>
+  </si>
+  <si>
+    <t>https://www.befr.ebay.be/itm/153506725371?_trkparms=ispr%3D1&amp;hash=item23bdb6bdfb:g:OacAAOSwcJtc7qR5&amp;amdata=enc%3AAQAGAAACkPYe5NmHp%252B2JMhMi7yxGiTJkPrKr5t53CooMSQt2orsStEKTPzZMfQmny3knR97t0J7t8W4zDMACrkQXnBfpmkhinvWSrGg4BBOSZ%252FqBl3CuabfCxDxThcyg%252FYDwpfMoeDz9eDxjUE8UYlo6MNGzXgiCtujtfQ2KOhv44u%252FDPwX6M6M%252BEXmycJzqap6xz9KE%252FVdhlUQHdBjRprJ9l97GYIhXxImva4ZnB8W9ej%252F8%252F%252FEnjZm7VQH9uQ9WUPMbG2BfCx9nRs8EL%252BB5c%252BkpXP9zxkp7scHSaImkDvHkwnVXIvPhRCNoCRWu7RfSaGhbxe100vZl%252BC4LbSZzn9ZOQUox31dUCSlA85gbMaykmFg3Lwgl5cuzEbVJsmY6SDFYEAb9b%252F1x7wFayB6qUgwd9Ko6W3X%252FbcJC68dEYHaCQP98YjS5HqvLI04SGD3NK%252F5LkQ2Fx2nprchAKk3MPZ7n9ypMQQA9cN%252BsOnkbbCNBk%252Fsbg4OjdhEIcGHFHrlwPTB78rgOT%252FBj%252F9AOH4i6P40h8M3NDshSCMQc3Tp%252B2kkZHnRRdvazjIIMw7yNvzzFrNPK1Kr0zEUKtb9FofhCBdnE3jk0HCzP%252BaTCeA5fIBYy5UXtzvtIxmj%252BF6O%252FZx5qq98IKxREUO4rOshBcwlxIdb6sRhLjydfC89cPWvQnS8vfu0sdjDKNceln2EVOrYT%252BAlnImYZZv4cAcQ0DSm3NNtUXlkEPG2st7t%252BE0P1YidKmh3vXJWpuT1zjLsFGEQI0VX%252FsrTJNEWRxHR0%252BVGygrtgB9M%252FBof8e1Mz1Nx7bxvEkilNwPPxGPDRW7BMvQfGrvmi6zKQXvv3PAwUOBY%252F3X%252BsZp%252BsnRVVNaX3T9KxQi8oUMleq5VZ%7Campid%3APL_CLK%7Cclp%3A2334524</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/best-Vitesse-Voiture-plan%C3%A9taire-Accessoires/dp/B082Y8GPY6/ref=sr_1_12?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=planetary%2Bgearbox&amp;qid=1625150501&amp;sr=8-12&amp;th=1#customerReviews</t>
+  </si>
+  <si>
+    <t>https://www.pb-modelisme.com/Moteur/electricmotor/detailMoteur.php?prod=967</t>
+  </si>
+  <si>
+    <t>y (twice)</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/de_de/turnigy-aerodrive-sk3-3530-1460kv-brushless-outrunner-motor.html?queryID=5aa42f9bc000b24aa2dc53a7a5ce9506&amp;objectID=17186&amp;indexName=hbk_live_products_analytics</t>
+  </si>
+  <si>
+    <t>battery packs:</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>nickel ribbons</t>
+  </si>
+  <si>
+    <t>connectors for battery endpoint</t>
+  </si>
+  <si>
+    <t>sand paper</t>
+  </si>
+  <si>
+    <t>battery spacers?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,9 +765,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1025,20 +1050,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="G57" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1113,7 @@
         <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T1" t="s">
         <v>7</v>
@@ -1118,9 +1143,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="A2">
-        <f>ROUNDUP(O95*10^-3,3)</f>
+        <f>ROUNDUP(O100*10^-3,3)</f>
         <v>6.9690000000000003</v>
       </c>
       <c r="B2">
@@ -1203,7 +1228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="L3" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1236,7 @@
         <v>48.5</v>
       </c>
       <c r="N3">
-        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N98, 0) * N98</f>
+        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N103, 0) * N103</f>
         <v>84</v>
       </c>
       <c r="O3">
@@ -1258,7 +1283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="L4" t="s">
         <v>20</v>
       </c>
@@ -1313,12 +1338,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28">
       <c r="L5" t="s">
         <v>62</v>
       </c>
       <c r="M5">
-        <f>S5*S98</f>
+        <f>S5*S103</f>
         <v>1.3805684000000005</v>
       </c>
       <c r="N5">
@@ -1347,34 +1372,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28">
       <c r="V7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="L8" t="s">
         <v>77</v>
       </c>
       <c r="V8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Z8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="13.2" customHeight="1">
       <c r="L9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="C10" t="s">
         <v>73</v>
       </c>
@@ -1385,16 +1410,16 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="C11">
         <f>ROUND(N2/2*P2*10^-3 + (N2/2 + 1)*0.002,2)</f>
         <v>4.9000000000000004</v>
@@ -1407,55 +1432,55 @@
         <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="L12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="L13" t="s">
         <v>107</v>
       </c>
-      <c r="P12" t="s">
-        <v>113</v>
-      </c>
-      <c r="V12" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="L13" t="s">
-        <v>108</v>
-      </c>
       <c r="V13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Y13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Z13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="L14" t="s">
-        <v>148</v>
-      </c>
-      <c r="V14" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1463,7 +1488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1471,10 +1496,10 @@
         <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1482,16 +1507,16 @@
         <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1499,16 +1524,16 @@
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1516,16 +1541,16 @@
         <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1533,7 +1558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1541,10 +1566,10 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1555,13 +1580,13 @@
         <v>64</v>
       </c>
       <c r="V24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1569,16 +1594,16 @@
         <v>54</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1586,16 +1611,16 @@
         <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V26" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1603,16 +1628,16 @@
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1620,16 +1645,16 @@
         <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Z28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1637,16 +1662,16 @@
         <v>58</v>
       </c>
       <c r="L29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1654,16 +1679,16 @@
         <v>59</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1671,159 +1696,159 @@
         <v>61</v>
       </c>
       <c r="L31" t="s">
+        <v>124</v>
+      </c>
+      <c r="V31" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="L32" t="s">
         <v>125</v>
       </c>
-      <c r="V31" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z31" t="s">
+      <c r="V32" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="L32" t="s">
-        <v>126</v>
-      </c>
-      <c r="V32" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="12:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:27">
       <c r="L33" t="s">
+        <v>162</v>
+      </c>
+      <c r="V33" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="12:27">
+      <c r="L34" t="s">
         <v>163</v>
       </c>
-      <c r="V33" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L34" t="s">
+      <c r="V34" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="12:27">
+      <c r="L35" t="s">
         <v>164</v>
       </c>
-      <c r="V34" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z34" s="1" t="s">
+      <c r="V35" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z35" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L35" t="s">
-        <v>165</v>
-      </c>
-      <c r="V35" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="12:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:27">
       <c r="L36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V36" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="12:27" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="12:27">
       <c r="L37" t="s">
+        <v>185</v>
+      </c>
+      <c r="V37" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="12:27">
+      <c r="L42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="12:27">
+      <c r="L43" t="s">
+        <v>99</v>
+      </c>
+      <c r="N43" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>154</v>
+      </c>
+      <c r="V43" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="12:27">
+      <c r="L44" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>154</v>
+      </c>
+      <c r="V44" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="12:27">
+      <c r="L45" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>154</v>
+      </c>
+      <c r="V45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="12:27">
+      <c r="L46" t="s">
+        <v>151</v>
+      </c>
+      <c r="V46" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="12:27">
+      <c r="L47" t="s">
         <v>186</v>
       </c>
-      <c r="V37" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L43" t="s">
-        <v>100</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>155</v>
-      </c>
-      <c r="V43" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L44" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>155</v>
-      </c>
-      <c r="V44" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L45" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>155</v>
-      </c>
-      <c r="V45" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L46" t="s">
-        <v>152</v>
-      </c>
-      <c r="V46" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L47" t="s">
-        <v>187</v>
-      </c>
       <c r="V47" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Z47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="12:27" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="12:27">
       <c r="L49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O49">
         <v>1022</v>
@@ -1833,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="12:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:27">
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -1841,26 +1866,16 @@
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>160</v>
-      </c>
-      <c r="W50">
-        <v>26.39</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <f>ROUNDUP(N50*W50*(1+X50), 2)</f>
-        <v>26.39</v>
+        <v>159</v>
       </c>
       <c r="Z50" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="12:27" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="12:27">
       <c r="L51" t="s">
         <v>81</v>
       </c>
@@ -1868,540 +1883,543 @@
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="12:27" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="12:27">
       <c r="L52" t="s">
         <v>82</v>
       </c>
       <c r="V52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="12:27">
+      <c r="L53" t="s">
+        <v>83</v>
+      </c>
+      <c r="V53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="12:27">
+      <c r="L54" t="s">
+        <v>199</v>
+      </c>
+      <c r="V54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="12:27">
+      <c r="L55" t="s">
+        <v>194</v>
+      </c>
+      <c r="V55" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="12:27">
+      <c r="L56" t="s">
+        <v>193</v>
+      </c>
+      <c r="V56" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="12:27">
+      <c r="L57" t="s">
+        <v>84</v>
+      </c>
+      <c r="V57" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="12:27">
+      <c r="L58" t="s">
+        <v>87</v>
+      </c>
+      <c r="V58" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="12:27">
+      <c r="L59" t="s">
+        <v>85</v>
+      </c>
+      <c r="V59" t="s">
+        <v>159</v>
+      </c>
+      <c r="W59" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="12:27">
+      <c r="L60" t="s">
+        <v>86</v>
+      </c>
+      <c r="V60" t="s">
+        <v>159</v>
+      </c>
+      <c r="W60" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="12:27">
+      <c r="L61" t="s">
+        <v>208</v>
+      </c>
+      <c r="V61" t="s">
+        <v>159</v>
+      </c>
+      <c r="W61" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="12:27">
+      <c r="L62" t="s">
+        <v>88</v>
+      </c>
+      <c r="V62" t="s">
+        <v>213</v>
+      </c>
+      <c r="X62" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="12:27">
+      <c r="L63" t="s">
+        <v>205</v>
+      </c>
+      <c r="V63" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="12:27">
+      <c r="L65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="12:27">
+      <c r="L66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="12:27">
+      <c r="L67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="12:27">
+      <c r="L68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="12:27">
+      <c r="L69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="12:27">
+      <c r="L70" t="s">
+        <v>226</v>
+      </c>
+      <c r="O70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="12:27">
+      <c r="L74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="12:27">
+      <c r="L75" t="s">
+        <v>92</v>
+      </c>
+      <c r="V75" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA75" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="12:27">
+      <c r="L76" t="s">
+        <v>93</v>
+      </c>
+      <c r="V76" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="12:27">
+      <c r="L77" t="s">
+        <v>94</v>
+      </c>
+      <c r="V77" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="12:27">
+      <c r="L78" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>154</v>
+      </c>
+      <c r="T78" t="s">
+        <v>119</v>
+      </c>
+      <c r="U78" t="s">
+        <v>118</v>
+      </c>
+      <c r="V78" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="12:27">
+      <c r="L79" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>154</v>
+      </c>
+      <c r="T79" t="s">
+        <v>119</v>
+      </c>
+      <c r="U79" t="s">
+        <v>117</v>
+      </c>
+      <c r="V79" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="12:27">
+      <c r="L80" t="s">
+        <v>95</v>
+      </c>
+      <c r="V80" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="12:26">
+      <c r="L81" t="s">
+        <v>96</v>
+      </c>
+      <c r="V81" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z81" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="12:26">
+      <c r="L82" t="s">
+        <v>155</v>
+      </c>
+      <c r="V82" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z82" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="12:26">
+      <c r="L83" t="s">
+        <v>156</v>
+      </c>
+      <c r="V83" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z83" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="12:26">
+      <c r="L84" t="s">
+        <v>167</v>
+      </c>
+      <c r="V84" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="12:26">
+      <c r="L85" t="s">
+        <v>177</v>
+      </c>
+      <c r="V85" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z85" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="12:26">
+      <c r="L87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="12:26">
+      <c r="L88" t="s">
+        <v>97</v>
+      </c>
+      <c r="V88" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="12:26">
+      <c r="L89" t="s">
+        <v>98</v>
+      </c>
+      <c r="V89" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="12:26">
+      <c r="L90" t="s">
+        <v>121</v>
+      </c>
+      <c r="V90" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="12:26">
+      <c r="L91" t="s">
+        <v>126</v>
+      </c>
+      <c r="V91" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="12:26">
+      <c r="L92" t="s">
+        <v>129</v>
+      </c>
+      <c r="V92" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="12:26">
+      <c r="L93" t="s">
+        <v>127</v>
+      </c>
+      <c r="V93" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="12:26">
+      <c r="L96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="12:26">
+      <c r="L97" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="53" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L53" t="s">
-        <v>84</v>
-      </c>
-      <c r="V53" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L54" t="s">
-        <v>203</v>
-      </c>
-      <c r="V54" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L55" t="s">
-        <v>198</v>
-      </c>
-      <c r="V55" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L56" t="s">
+      <c r="V97" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="12:26">
+      <c r="L98" t="s">
         <v>197</v>
       </c>
-      <c r="V56" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L57" t="s">
-        <v>85</v>
-      </c>
-      <c r="V57" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L58" t="s">
-        <v>88</v>
-      </c>
-      <c r="V58" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L59" t="s">
-        <v>86</v>
-      </c>
-      <c r="V59" t="s">
-        <v>160</v>
-      </c>
-      <c r="W59" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L60" t="s">
-        <v>87</v>
-      </c>
-      <c r="V60" t="s">
-        <v>160</v>
-      </c>
-      <c r="W60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L61" t="s">
-        <v>212</v>
-      </c>
-      <c r="V61" t="s">
-        <v>160</v>
-      </c>
-      <c r="W61" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L62" t="s">
-        <v>89</v>
-      </c>
-      <c r="V62" t="s">
-        <v>217</v>
-      </c>
-      <c r="X62" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L63" t="s">
-        <v>209</v>
-      </c>
-      <c r="V63" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L64" t="s">
-        <v>188</v>
-      </c>
-      <c r="V64" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L70" t="s">
-        <v>93</v>
-      </c>
-      <c r="V70" t="s">
+      <c r="V98" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z98" t="s">
         <v>161</v>
       </c>
-      <c r="Z70" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA70" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L71" t="s">
-        <v>94</v>
-      </c>
-      <c r="V71" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L72" t="s">
-        <v>95</v>
-      </c>
-      <c r="V72" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L73" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>155</v>
-      </c>
-      <c r="T73" t="s">
-        <v>120</v>
-      </c>
-      <c r="U73" t="s">
-        <v>119</v>
-      </c>
-      <c r="V73" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L74" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>155</v>
-      </c>
-      <c r="T74" t="s">
-        <v>120</v>
-      </c>
-      <c r="U74" t="s">
-        <v>118</v>
-      </c>
-      <c r="V74" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L75" t="s">
-        <v>96</v>
-      </c>
-      <c r="V75" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z75" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L76" t="s">
-        <v>97</v>
-      </c>
-      <c r="V76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z76" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L77" t="s">
-        <v>156</v>
-      </c>
-      <c r="V77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z77" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L78" t="s">
-        <v>157</v>
-      </c>
-      <c r="V78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z78" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L79" t="s">
-        <v>168</v>
-      </c>
-      <c r="V79" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L80" t="s">
-        <v>178</v>
-      </c>
-      <c r="V80" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z80" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L83" t="s">
-        <v>98</v>
-      </c>
-      <c r="V83" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L84" t="s">
-        <v>99</v>
-      </c>
-      <c r="V84" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L85" t="s">
-        <v>122</v>
-      </c>
-      <c r="V85" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L86" t="s">
-        <v>127</v>
-      </c>
-      <c r="V86" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L87" t="s">
-        <v>130</v>
-      </c>
-      <c r="V87" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L88" t="s">
-        <v>128</v>
-      </c>
-      <c r="V88" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L91" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L92" t="s">
-        <v>200</v>
-      </c>
-      <c r="V92" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L93" t="s">
-        <v>201</v>
-      </c>
-      <c r="V93" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L95" t="s">
+    </row>
+    <row r="100" spans="12:26">
+      <c r="L100" t="s">
         <v>15</v>
       </c>
-      <c r="O95">
+      <c r="O100">
         <f>O2+O3+O4+O5+O49+O50+O51</f>
         <v>6968.7926299999999</v>
       </c>
-      <c r="Y95">
+      <c r="Y100">
         <f>Y3+Y2+Y4</f>
         <v>304.71000000000004</v>
       </c>
     </row>
-    <row r="97" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="L97" t="s">
+    <row r="102" spans="12:26">
+      <c r="L102" t="s">
         <v>23</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M102" t="s">
         <v>60</v>
       </c>
-      <c r="N97" t="s">
+      <c r="N102" t="s">
         <v>24</v>
       </c>
-      <c r="O97" t="s">
+      <c r="O102" t="s">
         <v>29</v>
       </c>
-      <c r="P97" t="s">
+      <c r="P102" t="s">
         <v>79</v>
       </c>
-      <c r="S97" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="M98">
+      <c r="S102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="12:26">
+      <c r="M103">
         <f>N3*R3*10^-3</f>
         <v>5.67</v>
       </c>
-      <c r="N98">
+      <c r="N103">
         <v>6</v>
       </c>
-      <c r="O98">
+      <c r="O103">
         <f>AB2 * W2 + AB3 * W3+ AB4 * W4</f>
         <v>364.25</v>
       </c>
-      <c r="P98">
+      <c r="P103">
         <f>T2*N2</f>
         <v>307.52</v>
       </c>
-      <c r="S98">
+      <c r="S103">
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="W102" t="s">
+    <row r="107" spans="12:26">
+      <c r="W107" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="W103">
+    <row r="108" spans="12:26">
+      <c r="W108">
         <v>18.7</v>
       </c>
     </row>
-    <row r="105" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="L105" t="s">
+    <row r="110" spans="12:26">
+      <c r="L110" t="s">
         <v>70</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M110" t="s">
         <v>65</v>
       </c>
-      <c r="N105" t="s">
+      <c r="N110" t="s">
         <v>66</v>
       </c>
-      <c r="O105" t="s">
+      <c r="O110" t="s">
         <v>67</v>
       </c>
-      <c r="P105" t="s">
+      <c r="P110" t="s">
         <v>68</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="Q110" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="M106">
+    <row r="111" spans="12:26">
+      <c r="M111">
         <f>D2/(0.305 * C2/5695 * 10^3)</f>
         <v>1.1296639344262294</v>
       </c>
-      <c r="N106">
+      <c r="N111">
         <f>0.305 * C2/5695 * 10^3</f>
         <v>0.32133450395083407</v>
       </c>
-      <c r="P106">
+      <c r="P111">
         <f>C2/D2</f>
         <v>16.528925619834713</v>
       </c>
-      <c r="Q106">
+      <c r="Q111">
         <f>5.695*D2/0.305</f>
         <v>6.7779836065573775</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="Z33" r:id="rId1" xr:uid="{2C8B1182-8BB8-7F41-94DB-EE37A33F6DC0}"/>
-    <hyperlink ref="Z34" r:id="rId2" xr:uid="{4383EFF2-D0DF-F14C-A08E-7C94A37F4BDF}"/>
-    <hyperlink ref="Z35" r:id="rId3" xr:uid="{F0E69F05-7489-1C43-9C18-2BEBC0C73E3C}"/>
-    <hyperlink ref="Z70" r:id="rId4" xr:uid="{3DD539EB-89FB-E743-9637-D841300BCC81}"/>
-    <hyperlink ref="Z72" r:id="rId5" xr:uid="{4F53B6DB-034E-9942-A4EC-5B6C98F80428}"/>
-    <hyperlink ref="AA70" r:id="rId6" xr:uid="{FADCD529-0888-444F-9231-C20587DFF023}"/>
-    <hyperlink ref="Z77" r:id="rId7" xr:uid="{FECD0C62-22F2-E54F-98F9-22EC85B9CDF6}"/>
-    <hyperlink ref="Z80" r:id="rId8" xr:uid="{66C4CDF9-F481-DA4F-9D3E-733137AFF2FE}"/>
-    <hyperlink ref="Z36" r:id="rId9" xr:uid="{9068BB7F-7658-4047-B40A-3A50DA5B3C6D}"/>
-    <hyperlink ref="Z76" r:id="rId10" xr:uid="{F9AE6039-F79F-7845-B65B-33CE4D1B58BE}"/>
-    <hyperlink ref="Z78" r:id="rId11" xr:uid="{D3ECE977-59A8-8745-A846-3EFCC67053BE}"/>
-    <hyperlink ref="Z12" r:id="rId12" xr:uid="{48ED7D68-BDF1-E741-ADC4-A8677E37C355}"/>
-    <hyperlink ref="Z26" r:id="rId13" xr:uid="{52E75EB8-A916-9241-B600-DC7494E2DAAC}"/>
-    <hyperlink ref="Z44" r:id="rId14" xr:uid="{B84361CF-3B0F-CE48-919A-E1AB18B9E15C}"/>
-    <hyperlink ref="AA44" r:id="rId15" xr:uid="{8EE10E62-B70E-8C4B-93B8-FE4A223BA292}"/>
-    <hyperlink ref="Z46" r:id="rId16" location="customerReviews" xr:uid="{ACFE21C6-89B5-E046-A87F-BC5C0756B7CE}"/>
-    <hyperlink ref="Z75" r:id="rId17" xr:uid="{84450569-E3CE-7F4A-B170-589930F8B189}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7BB7DC-FC6E-4AFE-A57A-439BB4A34883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD61F2-EFA5-4C7B-A358-713E78E4BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="234">
   <si>
     <t>part</t>
   </si>
@@ -381,18 +381,12 @@
     <t>mandrel large</t>
   </si>
   <si>
-    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/profil%C3%A9s-t%C3%B4les/profil%C3%A9s/gah-alberts-tube-rond-en-aluminium-anodis%C3%A9-argent-30x2mm-2m/5608470</t>
-  </si>
-  <si>
     <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/profil%C3%A9s-t%C3%B4les/profil%C3%A9s/gah-alberts-tube-rond-en-aluminium-6x1mm-1m/5535011</t>
   </si>
   <si>
     <t>OD 6mm</t>
   </si>
   <si>
-    <t>OD 30mm</t>
-  </si>
-  <si>
     <t>aluminum</t>
   </si>
   <si>
@@ -405,9 +399,6 @@
     <t xml:space="preserve">power extender </t>
   </si>
   <si>
-    <t>https://www.brico.be/fr/construction/isolation/isolation-des-murs/panneau-d'isolation-ursa-'xps-nwe'-250-x-60-x-4-cm/5228836</t>
-  </si>
-  <si>
     <t>insulation tape</t>
   </si>
   <si>
@@ -486,9 +477,6 @@
     <t>regular wood for thicker wing ribs etc..</t>
   </si>
   <si>
-    <t>https://www.brico.be/fr/construction/bois/panneaux-mdf/panneau-mdf-sencys-haute-densit%C3%A9-122x61cm-6mm/1887954</t>
-  </si>
-  <si>
     <t>glue</t>
   </si>
   <si>
@@ -612,9 +600,6 @@
     <t>https://www.amazon.fr/Lunettes-de-sécurité-3MTM-2820/dp/B00BFWBFEW/ref=sr_1_9?__mk_fr_FR=ÅMÅŽÕÑ&amp;dchild=1&amp;keywords=lunettes+de+securite&amp;qid=1624899051&amp;sr=8-9</t>
   </si>
   <si>
-    <t>moulds: fuselage, wing &amp; rudder &amp; elevator connectors</t>
-  </si>
-  <si>
     <t>push rods</t>
   </si>
   <si>
@@ -715,13 +700,49 @@
   </si>
   <si>
     <t>battery spacers?</t>
+  </si>
+  <si>
+    <t>OD 25mm</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/profil%C3%A9s-t%C3%B4les/profil%C3%A9s/gah-alberts-tube-rond-en-aluminium-25x1-5mm-1m/5534963</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>wood for 5x5 spars</t>
+  </si>
+  <si>
+    <t>moulds: fuselage, propeller, wing &amp; rudder &amp; elevator connectors</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/construction/bois/panneaux-mdf/panneau-mdf-sencys-haute-densit%C3%A9-244x122x0-3cm/1887949</t>
+  </si>
+  <si>
+    <t>SAME AS MOULD</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/construction/isolation/mousse-d'isolation/mousse-d'isolation-rubson-'flex'-500-ml/4602494</t>
+  </si>
+  <si>
+    <t>more wood 2x</t>
+  </si>
+  <si>
+    <t>cart no mousse yet</t>
+  </si>
+  <si>
+    <t>not available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,18 +1073,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G57" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="G82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROUNDUP(O100*10^-3,3)</f>
         <v>6.9690000000000003</v>
@@ -1228,7 +1249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>62</v>
       </c>
@@ -1372,34 +1393,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="V7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
         <v>77</v>
       </c>
       <c r="V8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="13.2" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
         <v>103</v>
       </c>
       <c r="V9" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="W9" t="s">
+        <v>224</v>
       </c>
       <c r="Z9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>73</v>
       </c>
@@ -1410,16 +1434,19 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="V10" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="W10" t="s">
+        <v>233</v>
       </c>
       <c r="Z10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>ROUND(N2/2*P2*10^-3 + (N2/2 + 1)*0.002,2)</f>
         <v>4.9000000000000004</v>
@@ -1435,13 +1462,13 @@
         <v>104</v>
       </c>
       <c r="V11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
         <v>106</v>
       </c>
@@ -1449,38 +1476,38 @@
         <v>112</v>
       </c>
       <c r="V12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>107</v>
       </c>
       <c r="V13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Z13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="V14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1488,7 +1515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1496,10 +1523,10 @@
         <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1510,13 +1537,13 @@
         <v>108</v>
       </c>
       <c r="V19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1524,16 +1551,16 @@
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1541,16 +1568,16 @@
         <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1558,7 +1585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1566,10 +1593,10 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1580,13 +1607,13 @@
         <v>64</v>
       </c>
       <c r="V24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1597,13 +1624,13 @@
         <v>100</v>
       </c>
       <c r="V25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1614,13 +1641,13 @@
         <v>101</v>
       </c>
       <c r="V26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1628,16 +1655,16 @@
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="V27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1648,13 +1675,13 @@
         <v>102</v>
       </c>
       <c r="V28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Z28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1665,13 +1692,16 @@
         <v>105</v>
       </c>
       <c r="V29" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="W29" t="s">
+        <v>224</v>
       </c>
       <c r="Z29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1679,16 +1709,19 @@
         <v>59</v>
       </c>
       <c r="L30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V30" t="s">
-        <v>159</v>
+        <v>209</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>195</v>
       </c>
       <c r="Z30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1696,159 +1729,179 @@
         <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V31" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>122</v>
+      </c>
+      <c r="V32" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>158</v>
+      </c>
+      <c r="V33" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>159</v>
+      </c>
+      <c r="V34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
         <v>160</v>
       </c>
-      <c r="Z31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="L32" t="s">
-        <v>125</v>
-      </c>
-      <c r="V32" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="12:27">
-      <c r="L33" t="s">
-        <v>162</v>
-      </c>
-      <c r="V33" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z33" s="2" t="s">
+      <c r="V35" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>170</v>
+      </c>
+      <c r="V36" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z36" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="12:27">
-      <c r="L34" t="s">
-        <v>163</v>
-      </c>
-      <c r="V34" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="12:27">
-      <c r="L35" t="s">
-        <v>164</v>
-      </c>
-      <c r="V35" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="12:27">
-      <c r="L36" t="s">
-        <v>174</v>
-      </c>
-      <c r="V36" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z36" s="2" t="s">
+    <row r="37" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>181</v>
+      </c>
+      <c r="V37" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>99</v>
+      </c>
+      <c r="N41" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>150</v>
+      </c>
+      <c r="V41" t="s">
+        <v>155</v>
+      </c>
+      <c r="W41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>150</v>
+      </c>
+      <c r="V42" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="37" spans="12:27">
-      <c r="L37" t="s">
-        <v>185</v>
-      </c>
-      <c r="V37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="12:27">
-      <c r="L42" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="12:27">
+      <c r="Z42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N43" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="Q43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V43" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="W43" t="s">
+        <v>227</v>
       </c>
       <c r="Z43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="12:27">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L44" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="V44" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="Z44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AA44" s="2" t="s">
+    </row>
+    <row r="45" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="45" spans="12:27">
-      <c r="L45" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>154</v>
-      </c>
       <c r="V45" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="Z45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="12:27">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L46" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="V46" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="12:27">
-      <c r="L47" t="s">
-        <v>186</v>
-      </c>
-      <c r="V47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="12:27">
+        <v>155</v>
+      </c>
+      <c r="W46" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O49">
         <v>1022</v>
@@ -1858,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="12:27">
+    <row r="50" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -1866,16 +1919,16 @@
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Z50" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="12:27">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L51" t="s">
         <v>81</v>
       </c>
@@ -1883,441 +1936,486 @@
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="12:27">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L52" t="s">
         <v>82</v>
       </c>
       <c r="V52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="12:27">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L53" t="s">
         <v>83</v>
       </c>
       <c r="V53" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z53" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="12:27">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L54" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="V54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="12:27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L55" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="V55" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Z55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="12:27">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L56" t="s">
+        <v>188</v>
+      </c>
+      <c r="V56" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z56" t="s">
         <v>193</v>
       </c>
-      <c r="V56" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="12:27">
+    </row>
+    <row r="57" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L57" t="s">
         <v>84</v>
       </c>
       <c r="V57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="12:27">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L58" t="s">
         <v>87</v>
       </c>
       <c r="V58" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Z58" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AA58" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="12:27">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L59" t="s">
         <v>85</v>
       </c>
       <c r="V59" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W59" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Z59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="12:27">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L60" t="s">
         <v>86</v>
       </c>
       <c r="V60" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W60" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Z60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="12:27">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L61" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="V61" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W61" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Z61" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="12:27">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L62" t="s">
         <v>88</v>
       </c>
       <c r="V62" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="X62" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Z62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="12:27">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L63" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V63" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Z63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="12:27">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>217</v>
+      </c>
+      <c r="V66" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>218</v>
+      </c>
+      <c r="V67" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L68" t="s">
+        <v>219</v>
+      </c>
+      <c r="V68" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>220</v>
+      </c>
+      <c r="V69" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L70" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="66" spans="12:27">
-      <c r="L66" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" spans="12:27">
-      <c r="L67" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="68" spans="12:27">
-      <c r="L68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="12:27">
-      <c r="L69" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="12:27">
-      <c r="L70" t="s">
-        <v>226</v>
-      </c>
       <c r="O70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="12:27">
+        <v>198</v>
+      </c>
+      <c r="V70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L74" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="12:27">
+    <row r="75" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L75" t="s">
         <v>92</v>
       </c>
       <c r="V75" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA75" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="12:27">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L76" t="s">
         <v>93</v>
       </c>
       <c r="V76" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z76" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="12:27">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L77" t="s">
         <v>94</v>
       </c>
       <c r="V77" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="12:27">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L78" t="s">
         <v>114</v>
       </c>
       <c r="Q78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U78" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="V78" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="W78" t="s">
+        <v>224</v>
       </c>
       <c r="Z78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="12:27">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L79" t="s">
         <v>113</v>
       </c>
       <c r="Q79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T79" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V79" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="W79" t="s">
+        <v>224</v>
       </c>
       <c r="Z79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="12:27">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L80" t="s">
         <v>95</v>
       </c>
       <c r="V80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z80" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="12:26">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L81" t="s">
         <v>96</v>
       </c>
       <c r="V81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="12:26">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L82" t="s">
+        <v>151</v>
+      </c>
+      <c r="V82" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z82" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
+        <v>152</v>
+      </c>
+      <c r="V83" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z83" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
+        <v>163</v>
+      </c>
+      <c r="V84" t="s">
         <v>155</v>
       </c>
-      <c r="V82" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z82" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="12:26">
-      <c r="L83" t="s">
-        <v>156</v>
-      </c>
-      <c r="V83" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z83" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="84" spans="12:26">
-      <c r="L84" t="s">
-        <v>167</v>
-      </c>
-      <c r="V84" t="s">
-        <v>159</v>
+      <c r="W84" t="s">
+        <v>224</v>
       </c>
       <c r="Z84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="12:26">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L85" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="V85" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z85" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="12:26">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="12:26">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L88" t="s">
         <v>97</v>
       </c>
       <c r="V88" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="W88" t="s">
+        <v>232</v>
+      </c>
+      <c r="X88" t="s">
+        <v>231</v>
       </c>
       <c r="Z88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="12:26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L89" t="s">
         <v>98</v>
       </c>
       <c r="V89" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="12:26">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V90" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="12:26">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L91" t="s">
+        <v>123</v>
+      </c>
+      <c r="V91" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
         <v>126</v>
       </c>
-      <c r="V91" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="12:26">
-      <c r="L92" t="s">
-        <v>129</v>
-      </c>
       <c r="V92" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="12:26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L93" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z93" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="12:26">
+    <row r="96" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="12:26">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L97" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="V97" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z97" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="12:26">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L98" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="V98" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z98" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="12:26">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L100" t="s">
         <v>15</v>
       </c>
@@ -2330,7 +2428,7 @@
         <v>304.71000000000004</v>
       </c>
     </row>
-    <row r="102" spans="12:26">
+    <row r="102" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L102" t="s">
         <v>23</v>
       </c>
@@ -2350,7 +2448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="12:26">
+    <row r="103" spans="12:26" x14ac:dyDescent="0.3">
       <c r="M103">
         <f>N3*R3*10^-3</f>
         <v>5.67</v>
@@ -2370,17 +2468,17 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="12:26">
+    <row r="107" spans="12:26" x14ac:dyDescent="0.3">
       <c r="W107" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="12:26">
+    <row r="108" spans="12:26" x14ac:dyDescent="0.3">
       <c r="W108">
         <v>18.7</v>
       </c>
     </row>
-    <row r="110" spans="12:26">
+    <row r="110" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L110" t="s">
         <v>70</v>
       </c>
@@ -2400,7 +2498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="12:26">
+    <row r="111" spans="12:26" x14ac:dyDescent="0.3">
       <c r="M111">
         <f>D2/(0.305 * C2/5695 * 10^3)</f>
         <v>1.1296639344262294</v>

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD61F2-EFA5-4C7B-A358-713E78E4BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F74D8-DA6D-4B1F-9BAA-F7D9015A34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="235">
   <si>
     <t>part</t>
   </si>
@@ -384,9 +384,6 @@
     <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/profil%C3%A9s-t%C3%B4les/profil%C3%A9s/gah-alberts-tube-rond-en-aluminium-6x1mm-1m/5535011</t>
   </si>
   <si>
-    <t>OD 6mm</t>
-  </si>
-  <si>
     <t>aluminum</t>
   </si>
   <si>
@@ -702,24 +699,15 @@
     <t>battery spacers?</t>
   </si>
   <si>
-    <t>OD 25mm</t>
-  </si>
-  <si>
     <t>https://www.brico.be/fr/atelier-mat%C3%A9riaux/quincaillerie/profil%C3%A9s-t%C3%B4les/profil%C3%A9s/gah-alberts-tube-rond-en-aluminium-25x1-5mm-1m/5534963</t>
   </si>
   <si>
-    <t>cart</t>
-  </si>
-  <si>
     <t>wood for 5x5 spars</t>
   </si>
   <si>
     <t>moulds: fuselage, propeller, wing &amp; rudder &amp; elevator connectors</t>
   </si>
   <si>
-    <t>CART</t>
-  </si>
-  <si>
     <t>https://www.brico.be/fr/construction/bois/panneaux-mdf/panneau-mdf-sencys-haute-densit%C3%A9-244x122x0-3cm/1887949</t>
   </si>
   <si>
@@ -736,6 +724,21 @@
   </si>
   <si>
     <t>not available</t>
+  </si>
+  <si>
+    <t>multimeter</t>
+  </si>
+  <si>
+    <t>new bearings for 9mm carbon tubes</t>
+  </si>
+  <si>
+    <t>OBSELETE</t>
+  </si>
+  <si>
+    <t>OD 30mm</t>
+  </si>
+  <si>
+    <t>OD 8mm</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="V7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -1403,10 +1406,10 @@
         <v>77</v>
       </c>
       <c r="V8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1414,13 +1417,10 @@
         <v>103</v>
       </c>
       <c r="V9" t="s">
-        <v>155</v>
-      </c>
-      <c r="W9" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="Z9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -1434,16 +1434,16 @@
         <v>78</v>
       </c>
       <c r="L10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V10" t="s">
+        <v>154</v>
+      </c>
+      <c r="W10" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z10" t="s">
         <v>183</v>
-      </c>
-      <c r="V10" t="s">
-        <v>155</v>
-      </c>
-      <c r="W10" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -1462,10 +1462,10 @@
         <v>104</v>
       </c>
       <c r="V11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,10 @@
         <v>112</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="X12" t="s">
+        <v>232</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>111</v>
@@ -1487,24 +1490,35 @@
         <v>107</v>
       </c>
       <c r="V13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>231</v>
+      </c>
+      <c r="V15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z15" t="s">
         <v>156</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -1523,7 +1537,7 @@
         <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -1537,10 +1551,10 @@
         <v>108</v>
       </c>
       <c r="V19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
@@ -1551,13 +1565,13 @@
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -1568,13 +1582,13 @@
         <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -1593,7 +1607,7 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -1607,7 +1621,7 @@
         <v>64</v>
       </c>
       <c r="V24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z24" t="s">
         <v>109</v>
@@ -1624,7 +1638,7 @@
         <v>100</v>
       </c>
       <c r="V25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -1641,7 +1655,7 @@
         <v>101</v>
       </c>
       <c r="V26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>110</v>
@@ -1655,10 +1669,10 @@
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -1675,10 +1689,10 @@
         <v>102</v>
       </c>
       <c r="V28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -1692,13 +1706,10 @@
         <v>105</v>
       </c>
       <c r="V29" t="s">
-        <v>155</v>
-      </c>
-      <c r="W29" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="Z29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -1709,16 +1720,16 @@
         <v>59</v>
       </c>
       <c r="L30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -1729,84 +1740,95 @@
         <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z37" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>230</v>
+      </c>
+      <c r="V38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="12:27" x14ac:dyDescent="0.3">
@@ -1814,94 +1836,85 @@
         <v>99</v>
       </c>
       <c r="N41" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V41" t="s">
         <v>155</v>
       </c>
-      <c r="W41" t="s">
-        <v>227</v>
-      </c>
       <c r="Z41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V43" t="s">
         <v>155</v>
       </c>
-      <c r="W43" t="s">
-        <v>227</v>
-      </c>
       <c r="Z43" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L44" t="s">
+        <v>146</v>
+      </c>
+      <c r="V44" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z44" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="V44" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="45" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L46" t="s">
+        <v>222</v>
+      </c>
+      <c r="V46" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z46" t="s">
         <v>225</v>
-      </c>
-      <c r="V46" t="s">
-        <v>155</v>
-      </c>
-      <c r="W46" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="49" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O49">
         <v>1022</v>
@@ -1919,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="12:27" x14ac:dyDescent="0.3">
@@ -1936,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="12:27" x14ac:dyDescent="0.3">
@@ -1947,10 +1960,10 @@
         <v>82</v>
       </c>
       <c r="V52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="12:27" x14ac:dyDescent="0.3">
@@ -1958,43 +1971,43 @@
         <v>83</v>
       </c>
       <c r="V53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="12:27" x14ac:dyDescent="0.3">
@@ -2002,10 +2015,10 @@
         <v>84</v>
       </c>
       <c r="V57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="12:27" x14ac:dyDescent="0.3">
@@ -2013,13 +2026,13 @@
         <v>87</v>
       </c>
       <c r="V58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="12:27" x14ac:dyDescent="0.3">
@@ -2027,13 +2040,13 @@
         <v>85</v>
       </c>
       <c r="V59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="12:27" x14ac:dyDescent="0.3">
@@ -2041,27 +2054,27 @@
         <v>86</v>
       </c>
       <c r="V60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L61" t="s">
+        <v>202</v>
+      </c>
+      <c r="V61" t="s">
+        <v>154</v>
+      </c>
+      <c r="W61" t="s">
         <v>203</v>
       </c>
-      <c r="V61" t="s">
-        <v>155</v>
-      </c>
-      <c r="W61" t="s">
-        <v>204</v>
-      </c>
       <c r="Z61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="12:27" x14ac:dyDescent="0.3">
@@ -2069,87 +2082,87 @@
         <v>88</v>
       </c>
       <c r="V62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X62" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z62" t="s">
         <v>198</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="63" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="12:27" x14ac:dyDescent="0.3">
       <c r="L70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="12:27" x14ac:dyDescent="0.3">
@@ -2162,13 +2175,13 @@
         <v>92</v>
       </c>
       <c r="V75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA75" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="12:27" x14ac:dyDescent="0.3">
@@ -2176,10 +2189,10 @@
         <v>93</v>
       </c>
       <c r="V76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="12:27" x14ac:dyDescent="0.3">
@@ -2187,10 +2200,10 @@
         <v>94</v>
       </c>
       <c r="V77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="12:27" x14ac:dyDescent="0.3">
@@ -2198,22 +2211,22 @@
         <v>114</v>
       </c>
       <c r="Q78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U78" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="V78" t="s">
         <v>155</v>
       </c>
-      <c r="W78" t="s">
-        <v>224</v>
+      <c r="Y78">
+        <v>2</v>
       </c>
       <c r="Z78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="12:27" x14ac:dyDescent="0.3">
@@ -2221,19 +2234,19 @@
         <v>113</v>
       </c>
       <c r="Q79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U79" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="V79" t="s">
         <v>155</v>
       </c>
-      <c r="W79" t="s">
-        <v>224</v>
+      <c r="Y79">
+        <v>1</v>
       </c>
       <c r="Z79" t="s">
         <v>115</v>
@@ -2244,10 +2257,10 @@
         <v>95</v>
       </c>
       <c r="V80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z80" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="12:26" x14ac:dyDescent="0.3">
@@ -2255,65 +2268,62 @@
         <v>96</v>
       </c>
       <c r="V81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z82" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V83" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y83" t="s">
         <v>156</v>
       </c>
-      <c r="Y83" t="s">
-        <v>157</v>
-      </c>
       <c r="Z83" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L84" t="s">
+        <v>162</v>
+      </c>
+      <c r="V84" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z84" t="s">
         <v>163</v>
-      </c>
-      <c r="V84" t="s">
-        <v>155</v>
-      </c>
-      <c r="W84" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="85" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L85" t="s">
+        <v>172</v>
+      </c>
+      <c r="V85" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z85" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="V85" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z85" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="87" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="12:26" x14ac:dyDescent="0.3">
@@ -2321,16 +2331,16 @@
         <v>97</v>
       </c>
       <c r="V88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W88" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X88" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Z88" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="12:26" x14ac:dyDescent="0.3">
@@ -2338,51 +2348,51 @@
         <v>98</v>
       </c>
       <c r="V89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z93" t="s">
         <v>109</v>
@@ -2390,29 +2400,29 @@
     </row>
     <row r="96" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="12:26" x14ac:dyDescent="0.3">

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F74D8-DA6D-4B1F-9BAA-F7D9015A34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F056214-EA35-4EB7-A8CA-B9AA50BD1A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="254">
   <si>
     <t>part</t>
   </si>
@@ -720,12 +720,6 @@
     <t>more wood 2x</t>
   </si>
   <si>
-    <t>cart no mousse yet</t>
-  </si>
-  <si>
-    <t>not available</t>
-  </si>
-  <si>
     <t>multimeter</t>
   </si>
   <si>
@@ -739,6 +733,69 @@
   </si>
   <si>
     <t>OD 8mm</t>
+  </si>
+  <si>
+    <t>.!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>large outer vacuum bag</t>
+  </si>
+  <si>
+    <t>hand vacuum pump or adapter for vacuum</t>
+  </si>
+  <si>
+    <t>small inner vacuum bag</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/peinture-sol-d%C3%A9coration/peinture-accessoires/accessoires-pour-peinture/papier-de-verre-grattoir/papier-de-verre/papier-abrasif-baseline-grain-100-10-pcs/5113762</t>
+  </si>
+  <si>
+    <t>https://www.brico.be/fr/peinture-sol-d%C3%A9coration/peinture-accessoires/accessoires-pour-peinture/papier-de-verre-grattoir/papier-de-verre/papier-abrasif-sencys-grain-60-5-m/5113364</t>
+  </si>
+  <si>
+    <t>NOT REQUIRED</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Electraline-59002-Multim%C3%A8tre-%C3%A9lectronique-fonctions/dp/B00CBJOOUA/ref=sr_1_6?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=multimetre&amp;qid=1625324222&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Plaques-feuilles-%C3%BCberzogenes-soudage-batterie/dp/B07D3C4FPS/ref=sr_1_6?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=nickel+strip&amp;qid=1625324756&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/100-connecteur-18650-batterie-lithium-ion-batterie-support/dp/B071ZMJRSP/ref=sr_1_9?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=18650+spacers&amp;qid=1625324883&amp;sr=8-9#customerReviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not required </t>
+  </si>
+  <si>
+    <t>based on battery formation</t>
+  </si>
+  <si>
+    <t>mill end</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/ChaRLes-1-3-175mm-Pouce-Carbure-Flutes/dp/B07H2CL5DJ/ref=sr_1_9?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=end+mill&amp;qid=1625330221&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Ensemble-fichiers-aiguilles-diam%C3%A8tre-convient/dp/B08VWF5KYQ/ref=sr_1_22?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=lime&amp;qid=1625330754&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>delivered?</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>y(hobbyking)</t>
+  </si>
+  <si>
+    <t>maybe not needed</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" topLeftCell="K52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1226,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROUNDUP(O100*10^-3,3)</f>
+        <f>ROUNDUP(O107*10^-3,3)</f>
         <v>6.9690000000000003</v>
       </c>
       <c r="B2">
@@ -1260,7 +1317,7 @@
         <v>48.5</v>
       </c>
       <c r="N3">
-        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N103, 0) * N103</f>
+        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N110, 0) * N110</f>
         <v>84</v>
       </c>
       <c r="O3">
@@ -1367,7 +1424,7 @@
         <v>62</v>
       </c>
       <c r="M5">
-        <f>S5*S103</f>
+        <f>S5*S110</f>
         <v>1.3805684000000005</v>
       </c>
       <c r="N5">
@@ -1400,6 +1457,12 @@
       <c r="V7" t="s">
         <v>153</v>
       </c>
+      <c r="Z7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
@@ -1411,16 +1474,22 @@
       <c r="Z8" t="s">
         <v>184</v>
       </c>
+      <c r="AB8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
         <v>103</v>
       </c>
       <c r="V9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z9" t="s">
         <v>140</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -1437,13 +1506,13 @@
         <v>182</v>
       </c>
       <c r="V10" t="s">
-        <v>154</v>
-      </c>
-      <c r="W10" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="Z10" t="s">
         <v>183</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -1464,8 +1533,14 @@
       <c r="V11" t="s">
         <v>154</v>
       </c>
+      <c r="W11" t="s">
+        <v>233</v>
+      </c>
       <c r="Z11" t="s">
         <v>156</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -1479,10 +1554,13 @@
         <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
@@ -1498,6 +1576,9 @@
       <c r="Z13" t="s">
         <v>141</v>
       </c>
+      <c r="AB13" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
@@ -1509,19 +1590,31 @@
       <c r="Z14" t="s">
         <v>142</v>
       </c>
+      <c r="AB14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V15" t="s">
         <v>154</v>
+      </c>
+      <c r="W15" t="s">
+        <v>203</v>
+      </c>
+      <c r="X15" t="s">
+        <v>253</v>
       </c>
       <c r="Z15" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1529,7 +1622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1633,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1556,8 +1649,11 @@
       <c r="Z19" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1573,8 +1669,11 @@
       <c r="Z20" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1590,8 +1689,11 @@
       <c r="Z21" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1599,7 +1701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1610,7 +1712,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1626,8 +1728,11 @@
       <c r="Z24" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1643,8 +1748,11 @@
       <c r="Z25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1660,8 +1768,11 @@
       <c r="Z26" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1677,8 +1788,11 @@
       <c r="Z27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1694,8 +1808,11 @@
       <c r="Z28" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1706,13 +1823,16 @@
         <v>105</v>
       </c>
       <c r="V29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z29" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1731,8 +1851,11 @@
       <c r="Z30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1748,8 +1871,11 @@
       <c r="Z31" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L32" t="s">
         <v>121</v>
       </c>
@@ -1759,8 +1885,11 @@
       <c r="Z32" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="AB32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L33" t="s">
         <v>157</v>
       </c>
@@ -1770,8 +1899,11 @@
       <c r="Z33" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="34" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="AB33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L34" t="s">
         <v>158</v>
       </c>
@@ -1781,8 +1913,11 @@
       <c r="Z34" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="35" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="AB34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L35" t="s">
         <v>159</v>
       </c>
@@ -1792,8 +1927,11 @@
       <c r="Z35" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="36" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="AB35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L36" t="s">
         <v>169</v>
       </c>
@@ -1803,8 +1941,11 @@
       <c r="Z36" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="37" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="AB36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L37" t="s">
         <v>180</v>
       </c>
@@ -1814,714 +1955,958 @@
       <c r="Z37" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="AB37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="V38" t="s">
         <v>154</v>
       </c>
+      <c r="W38" t="s">
+        <v>203</v>
+      </c>
       <c r="Z38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>245</v>
+      </c>
+      <c r="V39" t="s">
+        <v>154</v>
+      </c>
+      <c r="W39" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>246</v>
+      </c>
+      <c r="V40" t="s">
+        <v>154</v>
+      </c>
+      <c r="W40" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>99</v>
+      </c>
+      <c r="N45" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>149</v>
+      </c>
+      <c r="V45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>149</v>
+      </c>
+      <c r="V46" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>149</v>
+      </c>
+      <c r="V47" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>146</v>
+      </c>
+      <c r="V48" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
+        <v>181</v>
+      </c>
+      <c r="V49" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L50" t="s">
+        <v>222</v>
+      </c>
+      <c r="V50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>127</v>
+      </c>
+      <c r="O53">
+        <v>1022</v>
+      </c>
+      <c r="Y53">
+        <f>ROUNDUP(N53*W53*(1+X53), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>80</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L55" t="s">
+        <v>81</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="V55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L56" t="s">
+        <v>82</v>
+      </c>
+      <c r="V56" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>83</v>
+      </c>
+      <c r="V57" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>193</v>
+      </c>
+      <c r="V58" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>188</v>
+      </c>
+      <c r="V59" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>187</v>
+      </c>
+      <c r="V60" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L61" t="s">
+        <v>84</v>
+      </c>
+      <c r="V61" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>87</v>
+      </c>
+      <c r="V62" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>85</v>
+      </c>
+      <c r="V63" t="s">
+        <v>154</v>
+      </c>
+      <c r="W63" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z63" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L41" t="s">
-        <v>99</v>
-      </c>
-      <c r="N41" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>149</v>
-      </c>
-      <c r="V41" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L42" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>149</v>
-      </c>
-      <c r="V42" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L43" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>149</v>
-      </c>
-      <c r="V43" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L44" t="s">
-        <v>146</v>
-      </c>
-      <c r="V44" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L45" t="s">
-        <v>181</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="AB63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L64" t="s">
+        <v>86</v>
+      </c>
+      <c r="V64" t="s">
+        <v>154</v>
+      </c>
+      <c r="W64" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L65" t="s">
+        <v>202</v>
+      </c>
+      <c r="V65" t="s">
+        <v>154</v>
+      </c>
+      <c r="W65" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>88</v>
+      </c>
+      <c r="V66" t="s">
         <v>207</v>
       </c>
-      <c r="Z45" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L46" t="s">
-        <v>222</v>
-      </c>
-      <c r="V46" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L49" t="s">
-        <v>127</v>
-      </c>
-      <c r="O49">
-        <v>1022</v>
-      </c>
-      <c r="Y49">
-        <f>ROUNDUP(N49*W49*(1+X49), 2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L50" t="s">
-        <v>80</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="V50" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L51" t="s">
-        <v>81</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="V51" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L52" t="s">
-        <v>82</v>
-      </c>
-      <c r="V52" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L53" t="s">
-        <v>83</v>
-      </c>
-      <c r="V53" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L54" t="s">
-        <v>193</v>
-      </c>
-      <c r="V54" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L55" t="s">
-        <v>188</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="X66" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>199</v>
+      </c>
+      <c r="V67" t="s">
         <v>208</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Z67" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="56" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L56" t="s">
-        <v>187</v>
-      </c>
-      <c r="V56" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L57" t="s">
-        <v>84</v>
-      </c>
-      <c r="V57" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L58" t="s">
-        <v>87</v>
-      </c>
-      <c r="V58" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L59" t="s">
-        <v>85</v>
-      </c>
-      <c r="V59" t="s">
-        <v>154</v>
-      </c>
-      <c r="W59" t="s">
+      <c r="AB67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L70" t="s">
+        <v>216</v>
+      </c>
+      <c r="V70" t="s">
+        <v>154</v>
+      </c>
+      <c r="W70" t="s">
         <v>203</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L60" t="s">
-        <v>86</v>
-      </c>
-      <c r="V60" t="s">
-        <v>154</v>
-      </c>
-      <c r="W60" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L61" t="s">
-        <v>202</v>
-      </c>
-      <c r="V61" t="s">
-        <v>154</v>
-      </c>
-      <c r="W61" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L62" t="s">
-        <v>88</v>
-      </c>
-      <c r="V62" t="s">
-        <v>207</v>
-      </c>
-      <c r="X62" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L63" t="s">
-        <v>199</v>
-      </c>
-      <c r="V63" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L66" t="s">
-        <v>216</v>
-      </c>
-      <c r="V66" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L67" t="s">
-        <v>217</v>
-      </c>
-      <c r="V67" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L68" t="s">
-        <v>218</v>
-      </c>
-      <c r="V68" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L69" t="s">
-        <v>219</v>
-      </c>
-      <c r="V69" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L70" t="s">
-        <v>220</v>
-      </c>
-      <c r="O70" t="s">
-        <v>197</v>
-      </c>
-      <c r="V70" t="s">
-        <v>154</v>
       </c>
       <c r="Z70" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="74" spans="12:27" x14ac:dyDescent="0.3">
+      <c r="AB70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L71" t="s">
+        <v>217</v>
+      </c>
+      <c r="V71" t="s">
+        <v>154</v>
+      </c>
+      <c r="W71" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>218</v>
+      </c>
+      <c r="V72" t="s">
+        <v>154</v>
+      </c>
+      <c r="W72" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>219</v>
+      </c>
+      <c r="V73" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L74" t="s">
+        <v>220</v>
+      </c>
+      <c r="O74" t="s">
+        <v>197</v>
+      </c>
+      <c r="V74" t="s">
+        <v>208</v>
+      </c>
+      <c r="W74" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L75" t="s">
+    <row r="79" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
         <v>92</v>
       </c>
-      <c r="V75" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z75" s="2" t="s">
+      <c r="V79" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z79" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AA75" s="2" t="s">
+      <c r="AA79" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="76" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L76" t="s">
+      <c r="AB79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L80" t="s">
         <v>93</v>
       </c>
-      <c r="V76" t="s">
+      <c r="V80" t="s">
         <v>207</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Z80" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="77" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L77" t="s">
+      <c r="AB80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L81" t="s">
         <v>94</v>
       </c>
-      <c r="V77" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z77" s="2" t="s">
+      <c r="V81" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z81" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L78" t="s">
+      <c r="AB81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L82" t="s">
         <v>114</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="Q82" t="s">
         <v>149</v>
       </c>
-      <c r="T78" t="s">
+      <c r="T82" t="s">
         <v>116</v>
       </c>
-      <c r="U78" t="s">
-        <v>233</v>
-      </c>
-      <c r="V78" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y78">
+      <c r="U82" t="s">
+        <v>231</v>
+      </c>
+      <c r="V82" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y82">
         <v>2</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Z82" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="79" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L79" t="s">
+      <c r="AB82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
         <v>113</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="Q83" t="s">
         <v>149</v>
       </c>
-      <c r="T79" t="s">
+      <c r="T83" t="s">
         <v>116</v>
       </c>
-      <c r="U79" t="s">
+      <c r="U83" t="s">
+        <v>232</v>
+      </c>
+      <c r="V83" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
+        <v>95</v>
+      </c>
+      <c r="V84" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z84" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>96</v>
+      </c>
+      <c r="V85" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z85" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L86" t="s">
+        <v>150</v>
+      </c>
+      <c r="V86" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L87" t="s">
+        <v>151</v>
+      </c>
+      <c r="V87" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L88" t="s">
+        <v>162</v>
+      </c>
+      <c r="V88" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L89" t="s">
+        <v>172</v>
+      </c>
+      <c r="V89" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L90" t="s">
         <v>234</v>
       </c>
-      <c r="V79" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y79">
-        <v>1</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="12:27" x14ac:dyDescent="0.3">
-      <c r="L80" t="s">
-        <v>95</v>
-      </c>
-      <c r="V80" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="81" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L81" t="s">
-        <v>96</v>
-      </c>
-      <c r="V81" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z81" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L82" t="s">
-        <v>150</v>
-      </c>
-      <c r="V82" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z82" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L83" t="s">
-        <v>151</v>
-      </c>
-      <c r="V83" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y83" t="s">
+      <c r="V90" t="s">
+        <v>154</v>
+      </c>
+      <c r="W90" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z90" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Z83" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L84" t="s">
-        <v>162</v>
-      </c>
-      <c r="V84" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L85" t="s">
-        <v>172</v>
-      </c>
-      <c r="V85" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z85" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L87" t="s">
+      <c r="AB90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L91" t="s">
+        <v>235</v>
+      </c>
+      <c r="V91" t="s">
+        <v>154</v>
+      </c>
+      <c r="W91" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
+        <v>236</v>
+      </c>
+      <c r="V92" t="s">
+        <v>154</v>
+      </c>
+      <c r="W92" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L94" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L88" t="s">
+    <row r="95" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L95" t="s">
         <v>97</v>
       </c>
-      <c r="V88" t="s">
-        <v>154</v>
-      </c>
-      <c r="W88" t="s">
-        <v>228</v>
-      </c>
-      <c r="X88" t="s">
+      <c r="V95" t="s">
+        <v>208</v>
+      </c>
+      <c r="X95" t="s">
         <v>227</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y95" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z95" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="89" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L89" t="s">
+      <c r="AB95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L96" t="s">
         <v>98</v>
       </c>
-      <c r="V89" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z89" t="s">
+      <c r="V96" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z96" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="90" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L90" t="s">
+      <c r="AB96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L97" t="s">
         <v>118</v>
       </c>
-      <c r="V90" t="s">
+      <c r="V97" t="s">
         <v>207</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Z97" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="91" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L91" t="s">
+      <c r="AB97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L98" t="s">
         <v>122</v>
       </c>
-      <c r="V91" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z91" t="s">
+      <c r="V98" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z98" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="92" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L92" t="s">
+      <c r="AB98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L99" t="s">
         <v>125</v>
       </c>
-      <c r="V92" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z92" t="s">
+      <c r="V99" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z99" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="93" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L93" t="s">
+      <c r="AB99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L100" t="s">
         <v>123</v>
       </c>
-      <c r="V93" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z93" t="s">
+      <c r="V100" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z100" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="96" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L96" t="s">
+      <c r="AB100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L103" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L97" t="s">
+    <row r="104" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L104" t="s">
         <v>190</v>
       </c>
-      <c r="V97" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z97" t="s">
+      <c r="V104" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z104" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="98" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L98" t="s">
+      <c r="AB104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L105" t="s">
         <v>191</v>
       </c>
-      <c r="V98" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z98" t="s">
+      <c r="V105" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z105" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="100" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L100" t="s">
+      <c r="AB105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L107" t="s">
         <v>15</v>
       </c>
-      <c r="O100">
-        <f>O2+O3+O4+O5+O49+O50+O51</f>
+      <c r="O107">
+        <f>O2+O3+O4+O5+O53+O54+O55</f>
         <v>6968.7926299999999</v>
       </c>
-      <c r="Y100">
+      <c r="Y107">
         <f>Y3+Y2+Y4</f>
         <v>304.71000000000004</v>
       </c>
     </row>
-    <row r="102" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L102" t="s">
+    <row r="109" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L109" t="s">
         <v>23</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M109" t="s">
         <v>60</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N109" t="s">
         <v>24</v>
       </c>
-      <c r="O102" t="s">
+      <c r="O109" t="s">
         <v>29</v>
       </c>
-      <c r="P102" t="s">
+      <c r="P109" t="s">
         <v>79</v>
       </c>
-      <c r="S102" t="s">
+      <c r="S109" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="M103">
+    <row r="110" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="M110">
         <f>N3*R3*10^-3</f>
         <v>5.67</v>
       </c>
-      <c r="N103">
+      <c r="N110">
         <v>6</v>
       </c>
-      <c r="O103">
+      <c r="O110">
         <f>AB2 * W2 + AB3 * W3+ AB4 * W4</f>
         <v>364.25</v>
       </c>
-      <c r="P103">
+      <c r="P110">
         <f>T2*N2</f>
         <v>307.52</v>
       </c>
-      <c r="S103">
+      <c r="S110">
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="W107" t="s">
+    <row r="114" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="W114" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="W108">
+    <row r="115" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="W115">
         <v>18.7</v>
       </c>
     </row>
-    <row r="110" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L110" t="s">
+    <row r="117" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L117" t="s">
         <v>70</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M117" t="s">
         <v>65</v>
       </c>
-      <c r="N110" t="s">
+      <c r="N117" t="s">
         <v>66</v>
       </c>
-      <c r="O110" t="s">
+      <c r="O117" t="s">
         <v>67</v>
       </c>
-      <c r="P110" t="s">
+      <c r="P117" t="s">
         <v>68</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="Q117" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="M111">
+    <row r="118" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M118">
         <f>D2/(0.305 * C2/5695 * 10^3)</f>
         <v>1.1296639344262294</v>
       </c>
-      <c r="N111">
+      <c r="N118">
         <f>0.305 * C2/5695 * 10^3</f>
         <v>0.32133450395083407</v>
       </c>
-      <c r="P111">
+      <c r="P118">
         <f>C2/D2</f>
         <v>16.528925619834713</v>
       </c>
-      <c r="Q111">
+      <c r="Q118">
         <f>5.695*D2/0.305</f>
         <v>6.7779836065573775</v>
       </c>

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F056214-EA35-4EB7-A8CA-B9AA50BD1A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42AB413-C9F8-455D-AB45-A74BE173240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,9 +726,6 @@
     <t>new bearings for 9mm carbon tubes</t>
   </si>
   <si>
-    <t>OBSELETE</t>
-  </si>
-  <si>
     <t>OD 30mm</t>
   </si>
   <si>
@@ -796,6 +793,9 @@
   </si>
   <si>
     <t>maybe not needed</t>
+  </si>
+  <si>
+    <t>OBSELETE (maybe)</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
+    <sheetView tabSelected="1" topLeftCell="K79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA93" sqref="AA93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,10 +1458,10 @@
         <v>153</v>
       </c>
       <c r="Z7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>154</v>
       </c>
       <c r="W11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z11" t="s">
         <v>156</v>
@@ -1554,7 +1554,7 @@
         <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>111</v>
@@ -1605,7 +1605,7 @@
         <v>203</v>
       </c>
       <c r="X15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z15" t="s">
         <v>156</v>
@@ -1809,7 +1809,7 @@
         <v>137</v>
       </c>
       <c r="AB28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
         <v>133</v>
       </c>
       <c r="AB29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -1852,7 +1852,7 @@
         <v>134</v>
       </c>
       <c r="AB30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -1956,7 +1956,7 @@
         <v>204</v>
       </c>
       <c r="AB37" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="12:28" x14ac:dyDescent="0.3">
@@ -1964,50 +1964,50 @@
         <v>228</v>
       </c>
       <c r="V38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W38" t="s">
         <v>203</v>
       </c>
       <c r="Z38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AB38" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W39" t="s">
         <v>203</v>
       </c>
       <c r="Z39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB39" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W40" t="s">
         <v>203</v>
       </c>
       <c r="Z40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB40" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="12:28" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="V54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z54" t="s">
         <v>212</v>
@@ -2216,7 +2216,7 @@
         <v>194</v>
       </c>
       <c r="AB59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="12:28" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
         <v>198</v>
       </c>
       <c r="AB66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="12:28" x14ac:dyDescent="0.3">
@@ -2340,10 +2340,10 @@
         <v>208</v>
       </c>
       <c r="Z67" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AB67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="12:28" x14ac:dyDescent="0.3">
@@ -2379,7 +2379,7 @@
         <v>203</v>
       </c>
       <c r="Z71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB71" t="s">
         <v>154</v>
@@ -2410,10 +2410,10 @@
         <v>155</v>
       </c>
       <c r="Z73" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA73" t="s">
         <v>237</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>238</v>
       </c>
       <c r="AB73" t="s">
         <v>154</v>
@@ -2430,16 +2430,16 @@
         <v>208</v>
       </c>
       <c r="W74" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y74" t="s">
         <v>243</v>
       </c>
-      <c r="Y74" t="s">
-        <v>244</v>
-      </c>
       <c r="Z74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="12:28" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
         <v>116</v>
       </c>
       <c r="U82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V82" t="s">
         <v>155</v>
@@ -2529,7 +2529,7 @@
         <v>116</v>
       </c>
       <c r="U83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V83" t="s">
         <v>155</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="90" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V90" t="s">
         <v>154</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="91" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L91" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V91" t="s">
         <v>154</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="92" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V92" t="s">
         <v>154</v>
@@ -2698,7 +2698,7 @@
         <v>227</v>
       </c>
       <c r="Y95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z95" t="s">
         <v>226</v>
@@ -2732,7 +2732,7 @@
         <v>131</v>
       </c>
       <c r="AB97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="12:28" x14ac:dyDescent="0.3">

--- a/parts list.xlsx
+++ b/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42AB413-C9F8-455D-AB45-A74BE173240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4776655-98FF-4267-AEE8-E13CAFAAA87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="261">
   <si>
     <t>part</t>
   </si>
@@ -796,6 +796,27 @@
   </si>
   <si>
     <t>OBSELETE (maybe)</t>
+  </si>
+  <si>
+    <t>https://shop1.r-g.de/4DCGI/ezshop?action=warenkorb&amp;ButtonName=WK&amp;WorldNr=1&amp;sKontaktID=681693&amp;sKontaktKEY=u3HMXpKPCjmhlJSCcM6VUYVUwJbwu3&amp;sTICKCOUNT=56360774</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/covering-film-solid-white-5mtr-113.html?queryID=b59ee6a028287ff4af10f19a184738f8&amp;objectID=20175&amp;indexName=hbk_live_products_analytics</t>
+  </si>
+  <si>
+    <t>5m x4</t>
+  </si>
+  <si>
+    <t>https://shop1.r-g.de/en/art/730302</t>
+  </si>
+  <si>
+    <t>https://shop1.r-g.de/en/art/192150050-UUD-PP</t>
+  </si>
+  <si>
+    <t>prepreg 5mx0.5m x1</t>
+  </si>
+  <si>
+    <t>1m 7/8mm CF tube x6</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA93" sqref="AA93"/>
+    <sheetView tabSelected="1" topLeftCell="J90" zoomScale="96" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P99" sqref="P99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1165,7 @@
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1224,9 +1245,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>ROUNDUP(O107*10^-3,3)</f>
+        <f>ROUNDUP(O111*10^-3,3)</f>
         <v>6.9690000000000003</v>
       </c>
       <c r="B2">
@@ -1309,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1338,7 @@
         <v>48.5</v>
       </c>
       <c r="N3">
-        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N110, 0) * N110</f>
+        <f>ROUNDUP(B2*(24-F2)/(U3*I2 * 10^-2) / N114, 0) * N114</f>
         <v>84</v>
       </c>
       <c r="O3">
@@ -1364,7 +1385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>20</v>
       </c>
@@ -1418,13 +1439,16 @@
         <f>ROUNDUP(N4/AA4, 0)*AA4</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>62</v>
       </c>
       <c r="M5">
-        <f>S5*S110</f>
+        <f>S5*S114</f>
         <v>1.3805684000000005</v>
       </c>
       <c r="N5">
@@ -1453,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="V7" t="s">
         <v>153</v>
       </c>
@@ -1464,7 +1488,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
         <v>77</v>
       </c>
@@ -1478,7 +1502,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" t="s">
         <v>103</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>73</v>
       </c>
@@ -1515,7 +1539,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>ROUND(N2/2*P2*10^-3 + (N2/2 + 1)*0.002,2)</f>
         <v>4.9000000000000004</v>
@@ -1530,20 +1554,23 @@
       <c r="L11" t="s">
         <v>104</v>
       </c>
+      <c r="M11" t="s">
+        <v>256</v>
+      </c>
       <c r="V11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="W11" t="s">
         <v>232</v>
       </c>
       <c r="Z11" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="AB11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
         <v>106</v>
       </c>
@@ -1563,7 +1590,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>107</v>
       </c>
@@ -1580,7 +1607,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
         <v>143</v>
       </c>
@@ -1594,7 +1621,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
         <v>229</v>
       </c>
@@ -2682,231 +2709,256 @@
         <v>154</v>
       </c>
     </row>
+    <row r="93" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L93" t="s">
+        <v>260</v>
+      </c>
+      <c r="V93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z93" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="94" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="12:28" x14ac:dyDescent="0.3">
-      <c r="L95" t="s">
-        <v>97</v>
-      </c>
-      <c r="V95" t="s">
-        <v>208</v>
-      </c>
-      <c r="X95" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="12:28" x14ac:dyDescent="0.3">
-      <c r="L96" t="s">
-        <v>98</v>
-      </c>
-      <c r="V96" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="12:28" x14ac:dyDescent="0.3">
-      <c r="L97" t="s">
-        <v>118</v>
-      </c>
-      <c r="V97" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>250</v>
+        <v>259</v>
+      </c>
+      <c r="V94" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L98" t="s">
-        <v>122</v>
-      </c>
-      <c r="V98" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L99" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="V99" t="s">
-        <v>155</v>
+        <v>208</v>
+      </c>
+      <c r="X99" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>238</v>
       </c>
       <c r="Z99" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="AB99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L100" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="V100" t="s">
         <v>155</v>
       </c>
       <c r="Z100" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AB100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L101" t="s">
+        <v>118</v>
+      </c>
+      <c r="V101" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L102" t="s">
+        <v>122</v>
+      </c>
+      <c r="V102" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB102" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="103" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L103" t="s">
-        <v>189</v>
+        <v>125</v>
+      </c>
+      <c r="V103" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L104" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="V104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z104" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="AB104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="12:28" x14ac:dyDescent="0.3">
-      <c r="L105" t="s">
-        <v>191</v>
-      </c>
-      <c r="V105" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB105" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L108" t="s">
+        <v>190</v>
+      </c>
+      <c r="V108" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L109" t="s">
+        <v>191</v>
+      </c>
+      <c r="V109" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="L111" t="s">
         <v>15</v>
       </c>
-      <c r="O107">
+      <c r="O111">
         <f>O2+O3+O4+O5+O53+O54+O55</f>
         <v>6968.7926299999999</v>
       </c>
-      <c r="Y107">
+      <c r="Y111">
         <f>Y3+Y2+Y4</f>
         <v>304.71000000000004</v>
       </c>
     </row>
-    <row r="109" spans="12:28" x14ac:dyDescent="0.3">
-      <c r="L109" t="s">
+    <row r="113" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L113" t="s">
         <v>23</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M113" t="s">
         <v>60</v>
       </c>
-      <c r="N109" t="s">
+      <c r="N113" t="s">
         <v>24</v>
       </c>
-      <c r="O109" t="s">
+      <c r="O113" t="s">
         <v>29</v>
       </c>
-      <c r="P109" t="s">
+      <c r="P113" t="s">
         <v>79</v>
       </c>
-      <c r="S109" t="s">
+      <c r="S113" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="12:28" x14ac:dyDescent="0.3">
-      <c r="M110">
+    <row r="114" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M114">
         <f>N3*R3*10^-3</f>
         <v>5.67</v>
       </c>
-      <c r="N110">
+      <c r="N114">
         <v>6</v>
       </c>
-      <c r="O110">
+      <c r="O114">
         <f>AB2 * W2 + AB3 * W3+ AB4 * W4</f>
         <v>364.25</v>
       </c>
-      <c r="P110">
+      <c r="P114">
         <f>T2*N2</f>
         <v>307.52</v>
       </c>
-      <c r="S110">
+      <c r="S114">
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="W114" t="s">
+    <row r="118" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="W118" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="W115">
+    <row r="119" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="W119">
         <v>18.7</v>
       </c>
     </row>
-    <row r="117" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="L117" t="s">
+    <row r="121" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L121" t="s">
         <v>70</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M121" t="s">
         <v>65</v>
       </c>
-      <c r="N117" t="s">
+      <c r="N121" t="s">
         <v>66</v>
       </c>
-      <c r="O117" t="s">
+      <c r="O121" t="s">
         <v>67</v>
       </c>
-      <c r="P117" t="s">
+      <c r="P121" t="s">
         <v>68</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="Q121" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="12:23" x14ac:dyDescent="0.3">
-      <c r="M118">
+    <row r="122" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="M122">
         <f>D2/(0.305 * C2/5695 * 10^3)</f>
         <v>1.1296639344262294</v>
       </c>
-      <c r="N118">
+      <c r="N122">
         <f>0.305 * C2/5695 * 10^3</f>
         <v>0.32133450395083407</v>
       </c>
-      <c r="P118">
+      <c r="P122">
         <f>C2/D2</f>
         <v>16.528925619834713</v>
       </c>
-      <c r="Q118">
+      <c r="Q122">
         <f>5.695*D2/0.305</f>
         <v>6.7779836065573775</v>
       </c>
